--- a/data/raw/Excel - trafic routier.xlsx
+++ b/data/raw/Excel - trafic routier.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\serietemporelle\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8A45CC-2AD1-4386-8009-9D1189B6980B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EACAFAB-4966-4C08-A44F-C569142F5301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,18 @@
     <sheet name="caractéristiques" sheetId="2" r:id="rId2"/>
     <sheet name="codes" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">valeurs_mensuelles!$B$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">valeurs_mensuelles!$C$2:$KC$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">valeurs_mensuelles!$B$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">valeurs_mensuelles!$C$2:$KC$2</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="339">
   <si>
     <t>Libellé</t>
   </si>
@@ -1045,8 +1051,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1107,7 +1114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1121,6 +1128,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1464,877 +1474,880 @@
   <dimension ref="A1:KC2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="M1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="N1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="O1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="P1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="Q1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="R1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="S1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="T1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="U1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="V1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="W1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="X1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="Y1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="Z1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AA1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AB1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AC1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AD1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AE1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AF1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AG1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AH1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AI1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AK1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AL1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AM1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AN1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AO1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AP1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AR1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AS1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AT1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AU1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AV1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AW1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AX1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="AY1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BA1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BB1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BC1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BD1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BE1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BF1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BG1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BH1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BI1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BK1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BL1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BM1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BN1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BO1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BP1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BR1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BS1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BT1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BU1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BV1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BW1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="BX1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="BY1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="BZ1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CA1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CB1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CC1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CD1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CE1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CF1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CG1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CH1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CI1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CJ1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CK1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CL1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CM1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CN1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CO1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CP1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CQ1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CR1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CS1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CT1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CU1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="CV1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="CW1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="CX1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="CY1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DA1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DB1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DC1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DD1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DE1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="2" t="s">
+      <c r="DF1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="2" t="s">
+      <c r="DG1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="2" t="s">
+      <c r="DH1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="2" t="s">
+      <c r="DI1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="2" t="s">
+      <c r="DJ1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DK1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="2" t="s">
+      <c r="DL1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="2" t="s">
+      <c r="DM1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DN1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="2" t="s">
+      <c r="DO1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="2" t="s">
+      <c r="DP1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="2" t="s">
+      <c r="DQ1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="DR1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="2" t="s">
+      <c r="DS1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="2" t="s">
+      <c r="DT1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="2" t="s">
+      <c r="DU1" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="2" t="s">
+      <c r="DV1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="DW1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="DX1" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="2" t="s">
+      <c r="DY1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="2" t="s">
+      <c r="DZ1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="2" t="s">
+      <c r="EA1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="2" t="s">
+      <c r="EB1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="2" t="s">
+      <c r="EC1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="2" t="s">
+      <c r="ED1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="2" t="s">
+      <c r="EE1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="2" t="s">
+      <c r="EF1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="2" t="s">
+      <c r="EG1" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="2" t="s">
+      <c r="EH1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="2" t="s">
+      <c r="EI1" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="2" t="s">
+      <c r="EJ1" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="2" t="s">
+      <c r="EK1" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="2" t="s">
+      <c r="EL1" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="2" t="s">
+      <c r="EM1" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="2" t="s">
+      <c r="EN1" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="2" t="s">
+      <c r="EO1" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="2" t="s">
+      <c r="EP1" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="2" t="s">
+      <c r="EQ1" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="2" t="s">
+      <c r="ER1" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="2" t="s">
+      <c r="ES1" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="2" t="s">
+      <c r="ET1" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="2" t="s">
+      <c r="EU1" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="2" t="s">
+      <c r="EV1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="2" t="s">
+      <c r="EW1" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="2" t="s">
+      <c r="EX1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="2" t="s">
+      <c r="EY1" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" s="2" t="s">
+      <c r="EZ1" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="2" t="s">
+      <c r="FA1" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" s="2" t="s">
+      <c r="FB1" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" s="2" t="s">
+      <c r="FC1" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" s="2" t="s">
+      <c r="FD1" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" s="2" t="s">
+      <c r="FE1" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" s="2" t="s">
+      <c r="FF1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" s="2" t="s">
+      <c r="FG1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" s="2" t="s">
+      <c r="FH1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" s="2" t="s">
+      <c r="FI1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" s="2" t="s">
+      <c r="FJ1" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="FM1" s="2" t="s">
+      <c r="FK1" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="FN1" s="2" t="s">
+      <c r="FL1" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FM1" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FN1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" s="2" t="s">
+      <c r="FO1" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="FP1" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="FQ1" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="FT1" s="2" t="s">
+      <c r="FR1" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="FS1" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="FV1" s="2" t="s">
+      <c r="FT1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="FU1" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="FX1" s="2" t="s">
+      <c r="FV1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="FY1" s="2" t="s">
+      <c r="FW1" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="FZ1" s="2" t="s">
+      <c r="FX1" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="GA1" s="2" t="s">
+      <c r="FY1" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="GB1" s="2" t="s">
+      <c r="FZ1" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="GC1" s="2" t="s">
+      <c r="GA1" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="GD1" s="2" t="s">
+      <c r="GB1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="GE1" s="2" t="s">
+      <c r="GC1" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="GF1" s="2" t="s">
+      <c r="GD1" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="GG1" s="2" t="s">
+      <c r="GE1" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="GH1" s="2" t="s">
+      <c r="GF1" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="GI1" s="2" t="s">
+      <c r="GG1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="GJ1" s="2" t="s">
+      <c r="GH1" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="GK1" s="2" t="s">
+      <c r="GI1" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="GL1" s="2" t="s">
+      <c r="GJ1" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="GM1" s="2" t="s">
+      <c r="GK1" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="GN1" s="2" t="s">
+      <c r="GL1" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="GO1" s="2" t="s">
+      <c r="GM1" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="GP1" s="2" t="s">
+      <c r="GN1" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="GQ1" s="2" t="s">
+      <c r="GO1" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="GR1" s="2" t="s">
+      <c r="GP1" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="GS1" s="2" t="s">
+      <c r="GQ1" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="GT1" s="2" t="s">
+      <c r="GR1" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="GU1" s="2" t="s">
+      <c r="GS1" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="GV1" s="2" t="s">
+      <c r="GT1" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="GW1" s="2" t="s">
+      <c r="GU1" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="GX1" s="2" t="s">
+      <c r="GV1" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="GY1" s="2" t="s">
+      <c r="GW1" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="GZ1" s="2" t="s">
+      <c r="GX1" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="HA1" s="2" t="s">
+      <c r="GY1" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="HB1" s="2" t="s">
+      <c r="GZ1" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="HC1" s="2" t="s">
+      <c r="HA1" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="HD1" s="2" t="s">
+      <c r="HB1" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="HE1" s="2" t="s">
+      <c r="HC1" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="HF1" s="2" t="s">
+      <c r="HD1" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="HG1" s="2" t="s">
+      <c r="HE1" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="HH1" s="2" t="s">
+      <c r="HF1" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="HI1" s="2" t="s">
+      <c r="HG1" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="HJ1" s="2" t="s">
+      <c r="HH1" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="HK1" s="2" t="s">
+      <c r="HI1" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="HL1" s="2" t="s">
+      <c r="HJ1" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="HM1" s="2" t="s">
+      <c r="HK1" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="HN1" s="2" t="s">
+      <c r="HL1" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="HO1" s="2" t="s">
+      <c r="HM1" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="HP1" s="2" t="s">
+      <c r="HN1" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="HQ1" s="2" t="s">
+      <c r="HO1" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="HR1" s="2" t="s">
+      <c r="HP1" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="HS1" s="2" t="s">
+      <c r="HQ1" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="HT1" s="2" t="s">
+      <c r="HR1" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="HU1" s="2" t="s">
+      <c r="HS1" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="HV1" s="2" t="s">
+      <c r="HT1" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="HW1" s="2" t="s">
+      <c r="HU1" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="HX1" s="2" t="s">
+      <c r="HV1" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="HY1" s="2" t="s">
+      <c r="HW1" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="HZ1" s="2" t="s">
+      <c r="HX1" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="IA1" s="2" t="s">
+      <c r="HY1" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="IB1" s="2" t="s">
+      <c r="HZ1" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="IC1" s="2" t="s">
+      <c r="IA1" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="ID1" s="2" t="s">
+      <c r="IB1" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="IE1" s="2" t="s">
+      <c r="IC1" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="IF1" s="2" t="s">
+      <c r="ID1" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="IG1" s="2" t="s">
+      <c r="IE1" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="IH1" s="2" t="s">
+      <c r="IF1" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="II1" s="2" t="s">
+      <c r="IG1" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="IJ1" s="2" t="s">
+      <c r="IH1" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="IK1" s="2" t="s">
+      <c r="II1" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="IL1" s="2" t="s">
+      <c r="IJ1" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="IM1" s="2" t="s">
+      <c r="IK1" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="IN1" s="2" t="s">
+      <c r="IL1" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="IO1" s="2" t="s">
+      <c r="IM1" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="IP1" s="2" t="s">
+      <c r="IN1" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="IQ1" s="2" t="s">
+      <c r="IO1" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="IR1" s="2" t="s">
+      <c r="IP1" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="IS1" s="2" t="s">
+      <c r="IQ1" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="IT1" s="2" t="s">
+      <c r="IR1" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="IU1" s="2" t="s">
+      <c r="IS1" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="IV1" s="2" t="s">
+      <c r="IT1" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="IW1" s="2" t="s">
+      <c r="IU1" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="IX1" s="2" t="s">
+      <c r="IV1" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="IY1" s="2" t="s">
+      <c r="IW1" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="IZ1" s="2" t="s">
+      <c r="IX1" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="JA1" s="2" t="s">
+      <c r="IY1" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="JB1" s="2" t="s">
+      <c r="IZ1" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="JC1" s="2" t="s">
+      <c r="JA1" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="JD1" s="2" t="s">
+      <c r="JB1" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="JE1" s="2" t="s">
+      <c r="JC1" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="JF1" s="2" t="s">
+      <c r="JD1" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="JG1" s="2" t="s">
+      <c r="JE1" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="JH1" s="2" t="s">
+      <c r="JF1" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="JI1" s="2" t="s">
+      <c r="JG1" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="JJ1" s="2" t="s">
+      <c r="JH1" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="JK1" s="2" t="s">
+      <c r="JI1" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="JL1" s="2" t="s">
+      <c r="JJ1" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="JM1" s="2" t="s">
+      <c r="JK1" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="JN1" s="2" t="s">
+      <c r="JL1" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="JO1" s="2" t="s">
+      <c r="JM1" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="JP1" s="2" t="s">
+      <c r="JN1" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="JQ1" s="2" t="s">
+      <c r="JO1" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="JR1" s="2" t="s">
+      <c r="JP1" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="JS1" s="2" t="s">
+      <c r="JQ1" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="JT1" s="2" t="s">
+      <c r="JR1" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="JU1" s="2" t="s">
+      <c r="JS1" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="JV1" s="2" t="s">
+      <c r="JT1" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="JW1" s="2" t="s">
+      <c r="JU1" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="JX1" s="2" t="s">
+      <c r="JV1" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="JY1" s="2" t="s">
+      <c r="JW1" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="JZ1" s="2" t="s">
+      <c r="JX1" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="KA1" s="2" t="s">
+      <c r="JY1" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="KB1" s="2" t="s">
+      <c r="JZ1" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="KC1" s="2" t="s">
+      <c r="KA1" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="KB1" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="KC1" s="7" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2342,857 +2355,863 @@
       <c r="A2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="C2" s="6">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2.9159999999999999</v>
+      </c>
       <c r="E2" s="6">
-        <v>3.0019999999999998</v>
+        <v>3.23</v>
       </c>
       <c r="F2" s="6">
-        <v>2.9159999999999999</v>
+        <v>3.4329999999999998</v>
       </c>
       <c r="G2" s="6">
-        <v>3.23</v>
+        <v>3.4809999999999999</v>
       </c>
       <c r="H2" s="6">
+        <v>3.605</v>
+      </c>
+      <c r="I2" s="6">
+        <v>4.024</v>
+      </c>
+      <c r="J2" s="6">
+        <v>4.09</v>
+      </c>
+      <c r="K2" s="6">
+        <v>3.504</v>
+      </c>
+      <c r="L2" s="6">
+        <v>3.47</v>
+      </c>
+      <c r="M2" s="6">
+        <v>3.1970000000000001</v>
+      </c>
+      <c r="N2" s="6">
+        <v>3.157</v>
+      </c>
+      <c r="O2" s="6">
+        <v>3.0649999999999999</v>
+      </c>
+      <c r="P2" s="6">
+        <v>2.9980000000000002</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>3.3809999999999998</v>
+      </c>
+      <c r="R2" s="6">
+        <v>3.4929999999999999</v>
+      </c>
+      <c r="S2" s="6">
+        <v>3.5979999999999999</v>
+      </c>
+      <c r="T2" s="6">
+        <v>3.6110000000000002</v>
+      </c>
+      <c r="U2" s="6">
+        <v>4.101</v>
+      </c>
+      <c r="V2" s="6">
+        <v>4.1959999999999997</v>
+      </c>
+      <c r="W2" s="6">
+        <v>3.5870000000000002</v>
+      </c>
+      <c r="X2" s="6">
+        <v>3.536</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>3.2189999999999999</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>3.2839999999999998</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>3.0489999999999999</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>3.48</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>3.6720000000000002</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>3.6589999999999998</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>3.871</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>4.2270000000000003</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>4.3090000000000002</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>3.7440000000000002</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>3.6989999999999998</v>
+      </c>
+      <c r="AK2" s="6">
+        <v>3.323</v>
+      </c>
+      <c r="AL2" s="6">
+        <v>3.4460000000000002</v>
+      </c>
+      <c r="AM2" s="6">
+        <v>3.2469999999999999</v>
+      </c>
+      <c r="AN2" s="6">
+        <v>3.1890000000000001</v>
+      </c>
+      <c r="AO2" s="6">
+        <v>3.55</v>
+      </c>
+      <c r="AP2" s="6">
+        <v>3.7970000000000002</v>
+      </c>
+      <c r="AQ2" s="6">
+        <v>3.8780000000000001</v>
+      </c>
+      <c r="AR2" s="6">
+        <v>3.8980000000000001</v>
+      </c>
+      <c r="AS2" s="6">
+        <v>4.4009999999999998</v>
+      </c>
+      <c r="AT2" s="6">
+        <v>4.3789999999999996</v>
+      </c>
+      <c r="AU2" s="6">
+        <v>3.8380000000000001</v>
+      </c>
+      <c r="AV2" s="6">
+        <v>3.79</v>
+      </c>
+      <c r="AW2" s="6">
+        <v>3.4420000000000002</v>
+      </c>
+      <c r="AX2" s="6">
+        <v>3.5590000000000002</v>
+      </c>
+      <c r="AY2" s="6">
+        <v>3.375</v>
+      </c>
+      <c r="AZ2" s="6">
+        <v>3.206</v>
+      </c>
+      <c r="BA2" s="6">
+        <v>3.6859999999999999</v>
+      </c>
+      <c r="BB2" s="6">
+        <v>3.7509999999999999</v>
+      </c>
+      <c r="BC2" s="6">
+        <v>3.9470000000000001</v>
+      </c>
+      <c r="BD2" s="6">
+        <v>3.996</v>
+      </c>
+      <c r="BE2" s="6">
+        <v>4.4980000000000002</v>
+      </c>
+      <c r="BF2" s="6">
+        <v>4.4550000000000001</v>
+      </c>
+      <c r="BG2" s="6">
+        <v>3.9239999999999999</v>
+      </c>
+      <c r="BH2" s="6">
+        <v>3.8580000000000001</v>
+      </c>
+      <c r="BI2" s="6">
+        <v>3.48</v>
+      </c>
+      <c r="BJ2" s="6">
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="BK2" s="6">
+        <v>3.39</v>
+      </c>
+      <c r="BL2" s="6">
+        <v>3.2869999999999999</v>
+      </c>
+      <c r="BM2" s="6">
+        <v>3.6440000000000001</v>
+      </c>
+      <c r="BN2" s="6">
+        <v>3.8940000000000001</v>
+      </c>
+      <c r="BO2" s="6">
+        <v>3.9860000000000002</v>
+      </c>
+      <c r="BP2" s="6">
+        <v>4.0449999999999999</v>
+      </c>
+      <c r="BQ2" s="6">
+        <v>4.4980000000000002</v>
+      </c>
+      <c r="BR2" s="6">
+        <v>4.4560000000000004</v>
+      </c>
+      <c r="BS2" s="6">
+        <v>3.9849999999999999</v>
+      </c>
+      <c r="BT2" s="6">
+        <v>3.9340000000000002</v>
+      </c>
+      <c r="BU2" s="6">
+        <v>3.62</v>
+      </c>
+      <c r="BV2" s="6">
+        <v>3.6909999999999998</v>
+      </c>
+      <c r="BW2" s="6">
+        <v>3.484</v>
+      </c>
+      <c r="BX2" s="6">
+        <v>3.3639999999999999</v>
+      </c>
+      <c r="BY2" s="6">
+        <v>3.8050000000000002</v>
+      </c>
+      <c r="BZ2" s="6">
+        <v>3.9740000000000002</v>
+      </c>
+      <c r="CA2" s="6">
+        <v>3.956</v>
+      </c>
+      <c r="CB2" s="6">
+        <v>4.0880000000000001</v>
+      </c>
+      <c r="CC2" s="6">
+        <v>4.5410000000000004</v>
+      </c>
+      <c r="CD2" s="6">
+        <v>4.5519999999999996</v>
+      </c>
+      <c r="CE2" s="6">
+        <v>4.0519999999999996</v>
+      </c>
+      <c r="CF2" s="6">
+        <v>4.0090000000000003</v>
+      </c>
+      <c r="CG2" s="6">
+        <v>3.7080000000000002</v>
+      </c>
+      <c r="CH2" s="6">
+        <v>3.6629999999999998</v>
+      </c>
+      <c r="CI2" s="6">
+        <v>3.5569999999999999</v>
+      </c>
+      <c r="CJ2" s="6">
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="CK2" s="6">
+        <v>3.7320000000000002</v>
+      </c>
+      <c r="CL2" s="6">
+        <v>3.895</v>
+      </c>
+      <c r="CM2" s="6">
+        <v>3.9940000000000002</v>
+      </c>
+      <c r="CN2" s="6">
+        <v>3.9550000000000001</v>
+      </c>
+      <c r="CO2" s="6">
+        <v>4.4450000000000003</v>
+      </c>
+      <c r="CP2" s="6">
+        <v>4.4930000000000003</v>
+      </c>
+      <c r="CQ2" s="6">
+        <v>3.9380000000000002</v>
+      </c>
+      <c r="CR2" s="6">
+        <v>3.9329999999999998</v>
+      </c>
+      <c r="CS2" s="6">
+        <v>3.528</v>
+      </c>
+      <c r="CT2" s="6">
+        <v>3.6309999999999998</v>
+      </c>
+      <c r="CU2" s="6">
+        <v>3.3969999999999998</v>
+      </c>
+      <c r="CV2" s="6">
+        <v>3.3420000000000001</v>
+      </c>
+      <c r="CW2" s="6">
+        <v>3.7080000000000002</v>
+      </c>
+      <c r="CX2" s="6">
+        <v>3.96</v>
+      </c>
+      <c r="CY2" s="6">
+        <v>4.0540000000000003</v>
+      </c>
+      <c r="CZ2" s="6">
+        <v>4.0629999999999997</v>
+      </c>
+      <c r="DA2" s="6">
+        <v>4.5289999999999999</v>
+      </c>
+      <c r="DB2" s="6">
+        <v>4.5890000000000004</v>
+      </c>
+      <c r="DC2" s="6">
+        <v>4.0410000000000004</v>
+      </c>
+      <c r="DD2" s="6">
+        <v>4.0629999999999997</v>
+      </c>
+      <c r="DE2" s="6">
+        <v>3.625</v>
+      </c>
+      <c r="DF2" s="6">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="DG2" s="6">
+        <v>3.4319999999999999</v>
+      </c>
+      <c r="DH2" s="6">
+        <v>3.4049999999999998</v>
+      </c>
+      <c r="DI2" s="6">
+        <v>3.819</v>
+      </c>
+      <c r="DJ2" s="6">
+        <v>4.1369999999999996</v>
+      </c>
+      <c r="DK2" s="6">
+        <v>4.17</v>
+      </c>
+      <c r="DL2" s="6">
+        <v>4.194</v>
+      </c>
+      <c r="DM2" s="6">
+        <v>4.665</v>
+      </c>
+      <c r="DN2" s="6">
+        <v>4.6470000000000002</v>
+      </c>
+      <c r="DO2" s="6">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="DP2" s="6">
+        <v>4.0860000000000003</v>
+      </c>
+      <c r="DQ2" s="6">
+        <v>3.7250000000000001</v>
+      </c>
+      <c r="DR2" s="6">
+        <v>3.6379999999999999</v>
+      </c>
+      <c r="DS2" s="6">
+        <v>3.6589999999999998</v>
+      </c>
+      <c r="DT2" s="6">
+        <v>3.5230000000000001</v>
+      </c>
+      <c r="DU2" s="6">
+        <v>3.9460000000000002</v>
+      </c>
+      <c r="DV2" s="6">
+        <v>4.1669999999999998</v>
+      </c>
+      <c r="DW2" s="6">
+        <v>4.2050000000000001</v>
+      </c>
+      <c r="DX2" s="6">
+        <v>4.3109999999999999</v>
+      </c>
+      <c r="DY2" s="6">
+        <v>4.7050000000000001</v>
+      </c>
+      <c r="DZ2" s="6">
+        <v>4.6890000000000001</v>
+      </c>
+      <c r="EA2" s="6">
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="EB2" s="6">
+        <v>4.1890000000000001</v>
+      </c>
+      <c r="EC2" s="6">
+        <v>3.7749999999999999</v>
+      </c>
+      <c r="ED2" s="6">
+        <v>3.8769999999999998</v>
+      </c>
+      <c r="EE2" s="6">
+        <v>3.6909999999999998</v>
+      </c>
+      <c r="EF2" s="6">
+        <v>3.3860000000000001</v>
+      </c>
+      <c r="EG2" s="6">
+        <v>3.9430000000000001</v>
+      </c>
+      <c r="EH2" s="6">
+        <v>4.0259999999999998</v>
+      </c>
+      <c r="EI2" s="6">
+        <v>4.1680000000000001</v>
+      </c>
+      <c r="EJ2" s="6">
+        <v>4.2549999999999999</v>
+      </c>
+      <c r="EK2" s="6">
+        <v>4.681</v>
+      </c>
+      <c r="EL2" s="6">
+        <v>4.6769999999999996</v>
+      </c>
+      <c r="EM2" s="6">
+        <v>4.1959999999999997</v>
+      </c>
+      <c r="EN2" s="6">
+        <v>4.1289999999999996</v>
+      </c>
+      <c r="EO2" s="6">
+        <v>3.835</v>
+      </c>
+      <c r="EP2" s="6">
+        <v>3.7480000000000002</v>
+      </c>
+      <c r="EQ2" s="6">
+        <v>3.593</v>
+      </c>
+      <c r="ER2" s="6">
         <v>3.4329999999999998</v>
       </c>
-      <c r="I2" s="6">
-        <v>3.4809999999999999</v>
-      </c>
-      <c r="J2" s="6">
-        <v>3.605</v>
-      </c>
-      <c r="K2" s="6">
-        <v>4.024</v>
-      </c>
-      <c r="L2" s="6">
-        <v>4.09</v>
-      </c>
-      <c r="M2" s="6">
-        <v>3.504</v>
-      </c>
-      <c r="N2" s="6">
-        <v>3.47</v>
-      </c>
-      <c r="O2" s="6">
-        <v>3.1970000000000001</v>
-      </c>
-      <c r="P2" s="6">
-        <v>3.157</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>3.0649999999999999</v>
-      </c>
-      <c r="R2" s="6">
-        <v>2.9980000000000002</v>
-      </c>
-      <c r="S2" s="6">
-        <v>3.3809999999999998</v>
-      </c>
-      <c r="T2" s="6">
-        <v>3.4929999999999999</v>
-      </c>
-      <c r="U2" s="6">
-        <v>3.5979999999999999</v>
-      </c>
-      <c r="V2" s="6">
-        <v>3.6110000000000002</v>
-      </c>
-      <c r="W2" s="6">
-        <v>4.101</v>
-      </c>
-      <c r="X2" s="6">
-        <v>4.1959999999999997</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>3.5870000000000002</v>
-      </c>
-      <c r="Z2" s="6">
-        <v>3.536</v>
-      </c>
-      <c r="AA2" s="6">
-        <v>3.2189999999999999</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>3.2839999999999998</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>3.1070000000000002</v>
-      </c>
-      <c r="AD2" s="6">
-        <v>3.0489999999999999</v>
-      </c>
-      <c r="AE2" s="6">
-        <v>3.48</v>
-      </c>
-      <c r="AF2" s="6">
-        <v>3.6720000000000002</v>
-      </c>
-      <c r="AG2" s="6">
-        <v>3.6589999999999998</v>
-      </c>
-      <c r="AH2" s="6">
-        <v>3.871</v>
-      </c>
-      <c r="AI2" s="6">
+      <c r="ES2" s="6">
+        <v>3.9180000000000001</v>
+      </c>
+      <c r="ET2" s="6">
+        <v>4.04</v>
+      </c>
+      <c r="EU2" s="6">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="EV2" s="6">
+        <v>4.2629999999999999</v>
+      </c>
+      <c r="EW2" s="6">
+        <v>4.7389999999999999</v>
+      </c>
+      <c r="EX2" s="6">
+        <v>4.7539999999999996</v>
+      </c>
+      <c r="EY2" s="6">
+        <v>4.22</v>
+      </c>
+      <c r="EZ2" s="6">
+        <v>4.2510000000000003</v>
+      </c>
+      <c r="FA2" s="6">
+        <v>3.7930000000000001</v>
+      </c>
+      <c r="FB2" s="6">
+        <v>3.867</v>
+      </c>
+      <c r="FC2" s="6">
+        <v>3.6960000000000002</v>
+      </c>
+      <c r="FD2" s="6">
+        <v>3.4689999999999999</v>
+      </c>
+      <c r="FE2" s="6">
+        <v>3.9319999999999999</v>
+      </c>
+      <c r="FF2" s="6">
+        <v>4.0919999999999996</v>
+      </c>
+      <c r="FG2" s="6">
+        <v>4.1429999999999998</v>
+      </c>
+      <c r="FH2" s="6">
+        <v>4.3390000000000004</v>
+      </c>
+      <c r="FI2" s="6">
+        <v>4.665</v>
+      </c>
+      <c r="FJ2" s="6">
+        <v>4.7279999999999998</v>
+      </c>
+      <c r="FK2" s="6">
+        <v>4.202</v>
+      </c>
+      <c r="FL2" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="FM2" s="6">
+        <v>3.7610000000000001</v>
+      </c>
+      <c r="FN2" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="FO2" s="6">
+        <v>3.6840000000000002</v>
+      </c>
+      <c r="FP2" s="6">
+        <v>3.5339999999999998</v>
+      </c>
+      <c r="FQ2" s="6">
+        <v>3.9449999999999998</v>
+      </c>
+      <c r="FR2" s="6">
+        <v>4.1859999999999999</v>
+      </c>
+      <c r="FS2" s="6">
+        <v>4.26</v>
+      </c>
+      <c r="FT2" s="6">
+        <v>4.3890000000000002</v>
+      </c>
+      <c r="FU2" s="6">
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="FV2" s="6">
+        <v>4.7830000000000004</v>
+      </c>
+      <c r="FW2" s="6">
+        <v>4.2610000000000001</v>
+      </c>
+      <c r="FX2" s="6">
+        <v>4.3289999999999997</v>
+      </c>
+      <c r="FY2" s="6">
+        <v>3.7970000000000002</v>
+      </c>
+      <c r="FZ2" s="6">
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="GA2" s="6">
+        <v>3.6579999999999999</v>
+      </c>
+      <c r="GB2" s="6">
+        <v>3.5419999999999998</v>
+      </c>
+      <c r="GC2" s="6">
+        <v>3.9670000000000001</v>
+      </c>
+      <c r="GD2" s="6">
+        <v>4.0880000000000001</v>
+      </c>
+      <c r="GE2" s="6">
+        <v>4.181</v>
+      </c>
+      <c r="GF2" s="6">
+        <v>4.3230000000000004</v>
+      </c>
+      <c r="GG2" s="6">
+        <v>4.8230000000000004</v>
+      </c>
+      <c r="GH2" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="GI2" s="6">
+        <v>4.2229999999999999</v>
+      </c>
+      <c r="GJ2" s="6">
+        <v>4.2640000000000002</v>
+      </c>
+      <c r="GK2" s="6">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="GL2" s="6">
+        <v>3.9929999999999999</v>
+      </c>
+      <c r="GM2" s="6">
+        <v>3.774</v>
+      </c>
+      <c r="GN2" s="6">
+        <v>3.73</v>
+      </c>
+      <c r="GO2" s="6">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="GP2" s="6">
+        <v>4.3159999999999998</v>
+      </c>
+      <c r="GQ2" s="6">
+        <v>4.391</v>
+      </c>
+      <c r="GR2" s="6">
+        <v>4.5410000000000004</v>
+      </c>
+      <c r="GS2" s="6">
+        <v>4.9080000000000004</v>
+      </c>
+      <c r="GT2" s="6">
+        <v>4.8360000000000003</v>
+      </c>
+      <c r="GU2" s="6">
+        <v>4.3479999999999999</v>
+      </c>
+      <c r="GV2" s="6">
+        <v>4.4249999999999998</v>
+      </c>
+      <c r="GW2" s="6">
+        <v>3.984</v>
+      </c>
+      <c r="GX2" s="6">
+        <v>4.0309999999999997</v>
+      </c>
+      <c r="GY2" s="6">
+        <v>3.8839999999999999</v>
+      </c>
+      <c r="GZ2" s="6">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="HA2" s="6">
+        <v>4.1159999999999997</v>
+      </c>
+      <c r="HB2" s="6">
         <v>4.2270000000000003</v>
       </c>
-      <c r="AJ2" s="6">
-        <v>4.3090000000000002</v>
-      </c>
-      <c r="AK2" s="6">
-        <v>3.7440000000000002</v>
-      </c>
-      <c r="AL2" s="6">
+      <c r="HC2" s="6">
+        <v>4.3760000000000003</v>
+      </c>
+      <c r="HD2" s="6">
+        <v>4.4550000000000001</v>
+      </c>
+      <c r="HE2" s="6">
+        <v>4.8070000000000004</v>
+      </c>
+      <c r="HF2" s="6">
+        <v>4.8019999999999996</v>
+      </c>
+      <c r="HG2" s="6">
+        <v>4.2839999999999998</v>
+      </c>
+      <c r="HH2" s="6">
+        <v>4.4089999999999998</v>
+      </c>
+      <c r="HI2" s="6">
+        <v>3.7869999999999999</v>
+      </c>
+      <c r="HJ2" s="6">
+        <v>3.8660000000000001</v>
+      </c>
+      <c r="HK2" s="6">
+        <v>3.8170000000000002</v>
+      </c>
+      <c r="HL2" s="6">
+        <v>3.714</v>
+      </c>
+      <c r="HM2" s="6">
+        <v>4.1130000000000004</v>
+      </c>
+      <c r="HN2" s="6">
+        <v>4.335</v>
+      </c>
+      <c r="HO2" s="6">
+        <v>4.2930000000000001</v>
+      </c>
+      <c r="HP2" s="6">
+        <v>4.5490000000000004</v>
+      </c>
+      <c r="HQ2" s="6">
+        <v>4.8760000000000003</v>
+      </c>
+      <c r="HR2" s="6">
+        <v>4.8780000000000001</v>
+      </c>
+      <c r="HS2" s="6">
+        <v>4.3390000000000004</v>
+      </c>
+      <c r="HT2" s="6">
+        <v>4.4180000000000001</v>
+      </c>
+      <c r="HU2" s="6">
+        <v>3.9670000000000001</v>
+      </c>
+      <c r="HV2" s="6">
+        <v>4.1020000000000003</v>
+      </c>
+      <c r="HW2" s="6">
+        <v>3.84</v>
+      </c>
+      <c r="HX2" s="6">
+        <v>3.6509999999999998</v>
+      </c>
+      <c r="HY2" s="6">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="HZ2" s="6">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="IA2" s="6">
+        <v>2.4729999999999999</v>
+      </c>
+      <c r="IB2" s="6">
+        <v>3.9940000000000002</v>
+      </c>
+      <c r="IC2" s="6">
+        <v>4.7229999999999999</v>
+      </c>
+      <c r="ID2" s="6">
+        <v>4.6859999999999999</v>
+      </c>
+      <c r="IE2" s="6">
+        <v>4.1020000000000003</v>
+      </c>
+      <c r="IF2" s="6">
+        <v>4.0720000000000001</v>
+      </c>
+      <c r="IG2" s="6">
+        <v>2.4969999999999999</v>
+      </c>
+      <c r="IH2" s="6">
+        <v>3.37</v>
+      </c>
+      <c r="II2" s="6">
+        <v>3.4049999999999998</v>
+      </c>
+      <c r="IJ2" s="6">
+        <v>3.3319999999999999</v>
+      </c>
+      <c r="IK2" s="6">
+        <v>3.6539999999999999</v>
+      </c>
+      <c r="IL2" s="6">
+        <v>3.044</v>
+      </c>
+      <c r="IM2" s="6">
+        <v>3.8820000000000001</v>
+      </c>
+      <c r="IN2" s="6">
+        <v>4.3550000000000004</v>
+      </c>
+      <c r="IO2" s="6">
+        <v>4.931</v>
+      </c>
+      <c r="IP2" s="6">
+        <v>4.8490000000000002</v>
+      </c>
+      <c r="IQ2" s="6">
+        <v>4.3849999999999998</v>
+      </c>
+      <c r="IR2" s="6">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="IS2" s="6">
+        <v>3.927</v>
+      </c>
+      <c r="IT2" s="6">
+        <v>3.9710000000000001</v>
+      </c>
+      <c r="IU2" s="6">
         <v>3.6989999999999998</v>
       </c>
-      <c r="AM2" s="6">
-        <v>3.323</v>
-      </c>
-      <c r="AN2" s="6">
-        <v>3.4460000000000002</v>
-      </c>
-      <c r="AO2" s="6">
-        <v>3.2469999999999999</v>
-      </c>
-      <c r="AP2" s="6">
-        <v>3.1890000000000001</v>
-      </c>
-      <c r="AQ2" s="6">
-        <v>3.55</v>
-      </c>
-      <c r="AR2" s="6">
-        <v>3.7970000000000002</v>
-      </c>
-      <c r="AS2" s="6">
-        <v>3.8780000000000001</v>
-      </c>
-      <c r="AT2" s="6">
-        <v>3.8980000000000001</v>
-      </c>
-      <c r="AU2" s="6">
-        <v>4.4009999999999998</v>
-      </c>
-      <c r="AV2" s="6">
-        <v>4.3789999999999996</v>
-      </c>
-      <c r="AW2" s="6">
-        <v>3.8380000000000001</v>
-      </c>
-      <c r="AX2" s="6">
-        <v>3.79</v>
-      </c>
-      <c r="AY2" s="6">
-        <v>3.4420000000000002</v>
-      </c>
-      <c r="AZ2" s="6">
-        <v>3.5590000000000002</v>
-      </c>
-      <c r="BA2" s="6">
-        <v>3.375</v>
-      </c>
-      <c r="BB2" s="6">
-        <v>3.206</v>
-      </c>
-      <c r="BC2" s="6">
-        <v>3.6859999999999999</v>
-      </c>
-      <c r="BD2" s="6">
-        <v>3.7509999999999999</v>
-      </c>
-      <c r="BE2" s="6">
-        <v>3.9470000000000001</v>
-      </c>
-      <c r="BF2" s="6">
-        <v>3.996</v>
-      </c>
-      <c r="BG2" s="6">
-        <v>4.4980000000000002</v>
-      </c>
-      <c r="BH2" s="6">
-        <v>4.4550000000000001</v>
-      </c>
-      <c r="BI2" s="6">
-        <v>3.9239999999999999</v>
-      </c>
-      <c r="BJ2" s="6">
-        <v>3.8580000000000001</v>
-      </c>
-      <c r="BK2" s="6">
-        <v>3.48</v>
-      </c>
-      <c r="BL2" s="6">
-        <v>3.5659999999999998</v>
-      </c>
-      <c r="BM2" s="6">
-        <v>3.39</v>
-      </c>
-      <c r="BN2" s="6">
-        <v>3.2869999999999999</v>
-      </c>
-      <c r="BO2" s="6">
-        <v>3.6440000000000001</v>
-      </c>
-      <c r="BP2" s="6">
-        <v>3.8940000000000001</v>
-      </c>
-      <c r="BQ2" s="6">
-        <v>3.9860000000000002</v>
-      </c>
-      <c r="BR2" s="6">
-        <v>4.0449999999999999</v>
-      </c>
-      <c r="BS2" s="6">
-        <v>4.4980000000000002</v>
-      </c>
-      <c r="BT2" s="6">
-        <v>4.4560000000000004</v>
-      </c>
-      <c r="BU2" s="6">
-        <v>3.9849999999999999</v>
-      </c>
-      <c r="BV2" s="6">
-        <v>3.9340000000000002</v>
-      </c>
-      <c r="BW2" s="6">
-        <v>3.62</v>
-      </c>
-      <c r="BX2" s="6">
-        <v>3.6909999999999998</v>
-      </c>
-      <c r="BY2" s="6">
-        <v>3.484</v>
-      </c>
-      <c r="BZ2" s="6">
-        <v>3.3639999999999999</v>
-      </c>
-      <c r="CA2" s="6">
-        <v>3.8050000000000002</v>
-      </c>
-      <c r="CB2" s="6">
-        <v>3.9740000000000002</v>
-      </c>
-      <c r="CC2" s="6">
-        <v>3.956</v>
-      </c>
-      <c r="CD2" s="6">
-        <v>4.0880000000000001</v>
-      </c>
-      <c r="CE2" s="6">
-        <v>4.5410000000000004</v>
-      </c>
-      <c r="CF2" s="6">
-        <v>4.5519999999999996</v>
-      </c>
-      <c r="CG2" s="6">
-        <v>4.0519999999999996</v>
-      </c>
-      <c r="CH2" s="6">
-        <v>4.0090000000000003</v>
-      </c>
-      <c r="CI2" s="6">
+      <c r="IV2" s="6">
+        <v>3.74</v>
+      </c>
+      <c r="IW2" s="6">
+        <v>3.9430000000000001</v>
+      </c>
+      <c r="IX2" s="6">
+        <v>3.98</v>
+      </c>
+      <c r="IY2" s="6">
+        <v>4.375</v>
+      </c>
+      <c r="IZ2" s="6">
+        <v>4.5110000000000001</v>
+      </c>
+      <c r="JA2" s="6">
+        <v>4.8360000000000003</v>
+      </c>
+      <c r="JB2" s="6">
+        <v>4.7949999999999999</v>
+      </c>
+      <c r="JC2" s="6">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="JD2" s="6">
+        <v>4.2130000000000001</v>
+      </c>
+      <c r="JE2" s="6">
+        <v>3.923</v>
+      </c>
+      <c r="JF2" s="6">
+        <v>3.8719999999999999</v>
+      </c>
+      <c r="JG2" s="6">
+        <v>3.7879999999999998</v>
+      </c>
+      <c r="JH2" s="6">
+        <v>3.758</v>
+      </c>
+      <c r="JI2" s="6">
+        <v>3.9079999999999999</v>
+      </c>
+      <c r="JJ2" s="6">
+        <v>4.0259999999999998</v>
+      </c>
+      <c r="JK2" s="6">
+        <v>4.3579999999999997</v>
+      </c>
+      <c r="JL2" s="6">
+        <v>4.5759999999999996</v>
+      </c>
+      <c r="JM2" s="6">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="JN2" s="6">
+        <v>4.7880000000000003</v>
+      </c>
+      <c r="JO2" s="6">
+        <v>4.3220000000000001</v>
+      </c>
+      <c r="JP2" s="6">
+        <v>4.3410000000000002</v>
+      </c>
+      <c r="JQ2" s="6">
+        <v>3.8740000000000001</v>
+      </c>
+      <c r="JR2" s="6">
+        <v>3.9220000000000002</v>
+      </c>
+      <c r="JS2" s="6">
+        <v>3.7770000000000001</v>
+      </c>
+      <c r="JT2" s="6">
         <v>3.7080000000000002</v>
       </c>
-      <c r="CJ2" s="6">
-        <v>3.6629999999999998</v>
-      </c>
-      <c r="CK2" s="6">
-        <v>3.5569999999999999</v>
-      </c>
-      <c r="CL2" s="6">
-        <v>3.4289999999999998</v>
-      </c>
-      <c r="CM2" s="6">
-        <v>3.7320000000000002</v>
-      </c>
-      <c r="CN2" s="6">
-        <v>3.895</v>
-      </c>
-      <c r="CO2" s="6">
-        <v>3.9940000000000002</v>
-      </c>
-      <c r="CP2" s="6">
-        <v>3.9550000000000001</v>
-      </c>
-      <c r="CQ2" s="6">
+      <c r="JU2" s="6">
+        <v>4.0119999999999996</v>
+      </c>
+      <c r="JV2" s="6">
+        <v>3.97</v>
+      </c>
+      <c r="JW2" s="6">
+        <v>4.3479999999999999</v>
+      </c>
+      <c r="JX2" s="6">
         <v>4.4450000000000003</v>
       </c>
-      <c r="CR2" s="6">
-        <v>4.4930000000000003</v>
-      </c>
-      <c r="CS2" s="6">
-        <v>3.9380000000000002</v>
-      </c>
-      <c r="CT2" s="6">
-        <v>3.9329999999999998</v>
-      </c>
-      <c r="CU2" s="6">
-        <v>3.528</v>
-      </c>
-      <c r="CV2" s="6">
-        <v>3.6309999999999998</v>
-      </c>
-      <c r="CW2" s="6">
-        <v>3.3969999999999998</v>
-      </c>
-      <c r="CX2" s="6">
-        <v>3.3420000000000001</v>
-      </c>
-      <c r="CY2" s="6">
-        <v>3.7080000000000002</v>
-      </c>
-      <c r="CZ2" s="6">
-        <v>3.96</v>
-      </c>
-      <c r="DA2" s="6">
-        <v>4.0540000000000003</v>
-      </c>
-      <c r="DB2" s="6">
-        <v>4.0629999999999997</v>
-      </c>
-      <c r="DC2" s="6">
-        <v>4.5289999999999999</v>
-      </c>
-      <c r="DD2" s="6">
-        <v>4.5890000000000004</v>
-      </c>
-      <c r="DE2" s="6">
-        <v>4.0410000000000004</v>
-      </c>
-      <c r="DF2" s="6">
-        <v>4.0629999999999997</v>
-      </c>
-      <c r="DG2" s="6">
-        <v>3.625</v>
-      </c>
-      <c r="DH2" s="6">
-        <v>3.6259999999999999</v>
-      </c>
-      <c r="DI2" s="6">
-        <v>3.4319999999999999</v>
-      </c>
-      <c r="DJ2" s="6">
-        <v>3.4049999999999998</v>
-      </c>
-      <c r="DK2" s="6">
-        <v>3.819</v>
-      </c>
-      <c r="DL2" s="6">
-        <v>4.1369999999999996</v>
-      </c>
-      <c r="DM2" s="6">
-        <v>4.17</v>
-      </c>
-      <c r="DN2" s="6">
-        <v>4.194</v>
-      </c>
-      <c r="DO2" s="6">
-        <v>4.665</v>
-      </c>
-      <c r="DP2" s="6">
-        <v>4.6470000000000002</v>
-      </c>
-      <c r="DQ2" s="6">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="DR2" s="6">
-        <v>4.0860000000000003</v>
-      </c>
-      <c r="DS2" s="6">
-        <v>3.7250000000000001</v>
-      </c>
-      <c r="DT2" s="6">
-        <v>3.6379999999999999</v>
-      </c>
-      <c r="DU2" s="6">
-        <v>3.6589999999999998</v>
-      </c>
-      <c r="DV2" s="6">
-        <v>3.5230000000000001</v>
-      </c>
-      <c r="DW2" s="6">
-        <v>3.9460000000000002</v>
-      </c>
-      <c r="DX2" s="6">
-        <v>4.1669999999999998</v>
-      </c>
-      <c r="DY2" s="6">
-        <v>4.2050000000000001</v>
-      </c>
-      <c r="DZ2" s="6">
-        <v>4.3109999999999999</v>
-      </c>
-      <c r="EA2" s="6">
-        <v>4.7050000000000001</v>
-      </c>
-      <c r="EB2" s="6">
-        <v>4.6890000000000001</v>
-      </c>
-      <c r="EC2" s="6">
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="ED2" s="6">
-        <v>4.1890000000000001</v>
-      </c>
-      <c r="EE2" s="6">
-        <v>3.7749999999999999</v>
-      </c>
-      <c r="EF2" s="6">
-        <v>3.8769999999999998</v>
-      </c>
-      <c r="EG2" s="6">
-        <v>3.6909999999999998</v>
-      </c>
-      <c r="EH2" s="6">
-        <v>3.3860000000000001</v>
-      </c>
-      <c r="EI2" s="6">
-        <v>3.9430000000000001</v>
-      </c>
-      <c r="EJ2" s="6">
-        <v>4.0259999999999998</v>
-      </c>
-      <c r="EK2" s="6">
-        <v>4.1680000000000001</v>
-      </c>
-      <c r="EL2" s="6">
-        <v>4.2549999999999999</v>
-      </c>
-      <c r="EM2" s="6">
-        <v>4.681</v>
-      </c>
-      <c r="EN2" s="6">
-        <v>4.6769999999999996</v>
-      </c>
-      <c r="EO2" s="6">
-        <v>4.1959999999999997</v>
-      </c>
-      <c r="EP2" s="6">
-        <v>4.1289999999999996</v>
-      </c>
-      <c r="EQ2" s="6">
-        <v>3.835</v>
-      </c>
-      <c r="ER2" s="6">
-        <v>3.7480000000000002</v>
-      </c>
-      <c r="ES2" s="6">
-        <v>3.593</v>
-      </c>
-      <c r="ET2" s="6">
-        <v>3.4329999999999998</v>
-      </c>
-      <c r="EU2" s="6">
-        <v>3.9180000000000001</v>
-      </c>
-      <c r="EV2" s="6">
-        <v>4.04</v>
-      </c>
-      <c r="EW2" s="6">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="EX2" s="6">
-        <v>4.2629999999999999</v>
-      </c>
-      <c r="EY2" s="6">
-        <v>4.7389999999999999</v>
-      </c>
-      <c r="EZ2" s="6">
-        <v>4.7539999999999996</v>
-      </c>
-      <c r="FA2" s="6">
-        <v>4.22</v>
-      </c>
-      <c r="FB2" s="6">
-        <v>4.2510000000000003</v>
-      </c>
-      <c r="FC2" s="6">
-        <v>3.7930000000000001</v>
-      </c>
-      <c r="FD2" s="6">
-        <v>3.867</v>
-      </c>
-      <c r="FE2" s="6">
-        <v>3.6960000000000002</v>
-      </c>
-      <c r="FF2" s="6">
-        <v>3.4689999999999999</v>
-      </c>
-      <c r="FG2" s="6">
-        <v>3.9319999999999999</v>
-      </c>
-      <c r="FH2" s="6">
-        <v>4.0919999999999996</v>
-      </c>
-      <c r="FI2" s="6">
-        <v>4.1429999999999998</v>
-      </c>
-      <c r="FJ2" s="6">
-        <v>4.3390000000000004</v>
-      </c>
-      <c r="FK2" s="6">
-        <v>4.665</v>
-      </c>
-      <c r="FL2" s="6">
-        <v>4.7279999999999998</v>
-      </c>
-      <c r="FM2" s="6">
-        <v>4.202</v>
-      </c>
-      <c r="FN2" s="6">
-        <v>4.3</v>
-      </c>
-      <c r="FO2" s="6">
-        <v>3.7610000000000001</v>
-      </c>
-      <c r="FP2" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="FQ2" s="6">
-        <v>3.6840000000000002</v>
-      </c>
-      <c r="FR2" s="6">
-        <v>3.5339999999999998</v>
-      </c>
-      <c r="FS2" s="6">
-        <v>3.9449999999999998</v>
-      </c>
-      <c r="FT2" s="6">
-        <v>4.1859999999999999</v>
-      </c>
-      <c r="FU2" s="6">
-        <v>4.26</v>
-      </c>
-      <c r="FV2" s="6">
-        <v>4.3890000000000002</v>
-      </c>
-      <c r="FW2" s="6">
-        <v>4.7679999999999998</v>
-      </c>
-      <c r="FX2" s="6">
-        <v>4.7830000000000004</v>
-      </c>
-      <c r="FY2" s="6">
-        <v>4.2610000000000001</v>
-      </c>
-      <c r="FZ2" s="6">
-        <v>4.3289999999999997</v>
-      </c>
-      <c r="GA2" s="6">
-        <v>3.7970000000000002</v>
-      </c>
-      <c r="GB2" s="6">
-        <v>4.0330000000000004</v>
-      </c>
-      <c r="GC2" s="6">
-        <v>3.6579999999999999</v>
-      </c>
-      <c r="GD2" s="6">
-        <v>3.5419999999999998</v>
-      </c>
-      <c r="GE2" s="6">
-        <v>3.9670000000000001</v>
-      </c>
-      <c r="GF2" s="6">
-        <v>4.0880000000000001</v>
-      </c>
-      <c r="GG2" s="6">
-        <v>4.181</v>
-      </c>
-      <c r="GH2" s="6">
-        <v>4.3230000000000004</v>
-      </c>
-      <c r="GI2" s="6">
+      <c r="JY2" s="6">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="JZ2" s="6">
         <v>4.8230000000000004</v>
       </c>
-      <c r="GJ2" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="GK2" s="6">
-        <v>4.2229999999999999</v>
-      </c>
-      <c r="GL2" s="6">
-        <v>4.2640000000000002</v>
-      </c>
-      <c r="GM2" s="6">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="GN2" s="6">
-        <v>3.9929999999999999</v>
-      </c>
-      <c r="GO2" s="6">
-        <v>3.774</v>
-      </c>
-      <c r="GP2" s="6">
-        <v>3.73</v>
-      </c>
-      <c r="GQ2" s="6">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="GR2" s="6">
-        <v>4.3159999999999998</v>
-      </c>
-      <c r="GS2" s="6">
-        <v>4.391</v>
-      </c>
-      <c r="GT2" s="6">
-        <v>4.5410000000000004</v>
-      </c>
-      <c r="GU2" s="6">
-        <v>4.9080000000000004</v>
-      </c>
-      <c r="GV2" s="6">
-        <v>4.8360000000000003</v>
-      </c>
-      <c r="GW2" s="6">
-        <v>4.3479999999999999</v>
-      </c>
-      <c r="GX2" s="6">
-        <v>4.4249999999999998</v>
-      </c>
-      <c r="GY2" s="6">
-        <v>3.984</v>
-      </c>
-      <c r="GZ2" s="6">
-        <v>4.0309999999999997</v>
-      </c>
-      <c r="HA2" s="6">
-        <v>3.8839999999999999</v>
-      </c>
-      <c r="HB2" s="6">
-        <v>3.6259999999999999</v>
-      </c>
-      <c r="HC2" s="6">
-        <v>4.1159999999999997</v>
-      </c>
-      <c r="HD2" s="6">
-        <v>4.2270000000000003</v>
-      </c>
-      <c r="HE2" s="6">
-        <v>4.3760000000000003</v>
-      </c>
-      <c r="HF2" s="6">
-        <v>4.4550000000000001</v>
-      </c>
-      <c r="HG2" s="6">
-        <v>4.8070000000000004</v>
-      </c>
-      <c r="HH2" s="6">
-        <v>4.8019999999999996</v>
-      </c>
-      <c r="HI2" s="6">
-        <v>4.2839999999999998</v>
-      </c>
-      <c r="HJ2" s="6">
-        <v>4.4089999999999998</v>
-      </c>
-      <c r="HK2" s="6">
-        <v>3.7869999999999999</v>
-      </c>
-      <c r="HL2" s="6">
-        <v>3.8660000000000001</v>
-      </c>
-      <c r="HM2" s="6">
-        <v>3.8170000000000002</v>
-      </c>
-      <c r="HN2" s="6">
-        <v>3.714</v>
-      </c>
-      <c r="HO2" s="6">
-        <v>4.1130000000000004</v>
-      </c>
-      <c r="HP2" s="6">
-        <v>4.335</v>
-      </c>
-      <c r="HQ2" s="6">
-        <v>4.2930000000000001</v>
-      </c>
-      <c r="HR2" s="6">
-        <v>4.5490000000000004</v>
-      </c>
-      <c r="HS2" s="6">
-        <v>4.8760000000000003</v>
-      </c>
-      <c r="HT2" s="6">
-        <v>4.8780000000000001</v>
-      </c>
-      <c r="HU2" s="6">
-        <v>4.3390000000000004</v>
-      </c>
-      <c r="HV2" s="6">
-        <v>4.4180000000000001</v>
-      </c>
-      <c r="HW2" s="6">
-        <v>3.9670000000000001</v>
-      </c>
-      <c r="HX2" s="6">
-        <v>4.1020000000000003</v>
-      </c>
-      <c r="HY2" s="6">
-        <v>3.84</v>
-      </c>
-      <c r="HZ2" s="6">
-        <v>3.6509999999999998</v>
-      </c>
-      <c r="IA2" s="6">
-        <v>2.4380000000000002</v>
-      </c>
-      <c r="IB2" s="6">
-        <v>1.1240000000000001</v>
-      </c>
-      <c r="IC2" s="6">
-        <v>2.4729999999999999</v>
-      </c>
-      <c r="ID2" s="6">
-        <v>3.9940000000000002</v>
-      </c>
-      <c r="IE2" s="6">
-        <v>4.7229999999999999</v>
-      </c>
-      <c r="IF2" s="6">
-        <v>4.6859999999999999</v>
-      </c>
-      <c r="IG2" s="6">
-        <v>4.1020000000000003</v>
-      </c>
-      <c r="IH2" s="6">
-        <v>4.0720000000000001</v>
-      </c>
-      <c r="II2" s="6">
-        <v>2.4969999999999999</v>
-      </c>
-      <c r="IJ2" s="6">
-        <v>3.37</v>
-      </c>
-      <c r="IK2" s="6">
-        <v>3.4049999999999998</v>
-      </c>
-      <c r="IL2" s="6">
-        <v>3.3319999999999999</v>
-      </c>
-      <c r="IM2" s="6">
-        <v>3.6539999999999999</v>
-      </c>
-      <c r="IN2" s="6">
-        <v>3.044</v>
-      </c>
-      <c r="IO2" s="6">
-        <v>3.8820000000000001</v>
-      </c>
-      <c r="IP2" s="6">
-        <v>4.3550000000000004</v>
-      </c>
-      <c r="IQ2" s="6">
-        <v>4.931</v>
-      </c>
-      <c r="IR2" s="6">
-        <v>4.8490000000000002</v>
-      </c>
-      <c r="IS2" s="6">
-        <v>4.3849999999999998</v>
-      </c>
-      <c r="IT2" s="6">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="IU2" s="6">
-        <v>3.927</v>
-      </c>
-      <c r="IV2" s="6">
-        <v>3.9710000000000001</v>
-      </c>
-      <c r="IW2" s="6">
-        <v>3.6989999999999998</v>
-      </c>
-      <c r="IX2" s="6">
-        <v>3.74</v>
-      </c>
-      <c r="IY2" s="6">
-        <v>3.9430000000000001</v>
-      </c>
-      <c r="IZ2" s="6">
-        <v>3.98</v>
-      </c>
-      <c r="JA2" s="6">
-        <v>4.375</v>
-      </c>
-      <c r="JB2" s="6">
-        <v>4.5110000000000001</v>
-      </c>
-      <c r="JC2" s="6">
-        <v>4.8360000000000003</v>
-      </c>
-      <c r="JD2" s="6">
-        <v>4.7949999999999999</v>
-      </c>
-      <c r="JE2" s="6">
-        <v>4.2990000000000004</v>
-      </c>
-      <c r="JF2" s="6">
-        <v>4.2130000000000001</v>
-      </c>
-      <c r="JG2" s="6">
-        <v>3.923</v>
-      </c>
-      <c r="JH2" s="6">
-        <v>3.8719999999999999</v>
-      </c>
-      <c r="JI2" s="6">
-        <v>3.7879999999999998</v>
-      </c>
-      <c r="JJ2" s="6">
-        <v>3.758</v>
-      </c>
-      <c r="JK2" s="6">
-        <v>3.9079999999999999</v>
-      </c>
-      <c r="JL2" s="6">
-        <v>4.0259999999999998</v>
-      </c>
-      <c r="JM2" s="6">
-        <v>4.3579999999999997</v>
-      </c>
-      <c r="JN2" s="6">
-        <v>4.5759999999999996</v>
-      </c>
-      <c r="JO2" s="6">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="JP2" s="6">
-        <v>4.7880000000000003</v>
-      </c>
-      <c r="JQ2" s="6">
-        <v>4.3220000000000001</v>
-      </c>
-      <c r="JR2" s="6">
-        <v>4.3410000000000002</v>
-      </c>
-      <c r="JS2" s="6">
-        <v>3.8740000000000001</v>
-      </c>
-      <c r="JT2" s="6">
-        <v>3.9220000000000002</v>
-      </c>
-      <c r="JU2" s="6">
-        <v>3.7770000000000001</v>
-      </c>
-      <c r="JV2" s="6">
-        <v>3.7080000000000002</v>
-      </c>
-      <c r="JW2" s="6">
-        <v>4.0119999999999996</v>
-      </c>
-      <c r="JX2" s="6">
-        <v>3.97</v>
-      </c>
-      <c r="JY2" s="6">
-        <v>4.3479999999999999</v>
-      </c>
-      <c r="JZ2" s="6">
-        <v>4.4450000000000003</v>
-      </c>
       <c r="KA2" s="6">
-        <v>4.8099999999999996</v>
+        <v>4.2649999999999997</v>
       </c>
       <c r="KB2" s="6">
         <v>4.8230000000000004</v>

--- a/data/raw/Excel - trafic routier.xlsx
+++ b/data/raw/Excel - trafic routier.xlsx
@@ -8,37 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\serietemporelle\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EACAFAB-4966-4C08-A44F-C569142F5301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C60B56E-2AC2-4281-BBF4-22D2D9CB6155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valeurs_mensuelles" sheetId="1" r:id="rId1"/>
-    <sheet name="caractéristiques" sheetId="2" r:id="rId2"/>
-    <sheet name="codes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">valeurs_mensuelles!$B$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">valeurs_mensuelles!$C$2:$KC$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">valeurs_mensuelles!$B$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">valeurs_mensuelles!$C$2:$KC$2</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="289">
   <si>
     <t>Libellé</t>
   </si>
   <si>
-    <t>idBank</t>
-  </si>
-  <si>
-    <t>Dernière mise à jour</t>
-  </si>
-  <si>
     <t>Période</t>
   </si>
   <si>
@@ -888,151 +874,7 @@
     <t>2024-06</t>
   </si>
   <si>
-    <t>001587563</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>Puissance</t>
-  </si>
-  <si>
-    <t>Indicateur</t>
-  </si>
-  <si>
-    <t>Correction</t>
-  </si>
-  <si>
-    <t>Types de marchandises dans les statistiques des transports</t>
-  </si>
-  <si>
-    <t>Localisation des ports autonomes et des aéroports français</t>
-  </si>
-  <si>
-    <t>Réseaux de transports terrestres et aériens</t>
-  </si>
-  <si>
-    <t>Types de véhicules automobiles</t>
-  </si>
-  <si>
-    <t>Livraisons de carburants pour la circulation routière</t>
-  </si>
-  <si>
-    <t>Statistiques globales diverses relatives aux transports</t>
-  </si>
-  <si>
-    <t>Série arrêtée</t>
-  </si>
-  <si>
-    <t>﻿Base de l'indice</t>
-  </si>
-  <si>
-    <t>Nature</t>
-  </si>
-  <si>
-    <t>Périodicité</t>
-  </si>
-  <si>
-    <t>Unité</t>
-  </si>
-  <si>
-    <t>Zone géographique</t>
-  </si>
-  <si>
-    <t>18/10/2024 10:23</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Parcours mensuel sur le réseau routier</t>
-  </si>
-  <si>
-    <t>Non corrigé</t>
-  </si>
-  <si>
-    <t>Sans objet</t>
-  </si>
-  <si>
-    <t>Routes nationales</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>Valeur absolue</t>
-  </si>
-  <si>
-    <t>Mensuelle</t>
-  </si>
-  <si>
-    <t>véhicules-kilomètres</t>
-  </si>
-  <si>
-    <t>France métropolitaine</t>
-  </si>
-  <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>Couvert par le secret statistique</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Estimation</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Prévision</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Provisoire</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Valeur semi-définitive</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Révision</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Valeur normale</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Valeur non significative</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Valeur manquante</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>Valeur atypique</t>
   </si>
   <si>
     <t>Parcours mensuel sur les routes nationales (en milliards de voitures-kilomètres)</t>
@@ -1055,7 +897,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1064,16 +906,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Open Sans"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Open Sans"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="Open Sans"/>
     </font>
@@ -1114,19 +946,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1471,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KC2"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1482,1991 +1308,2320 @@
     <col min="1" max="1" width="30.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:289" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3.0019999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B4" s="4">
+        <v>2.9159999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="B5" s="4">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="B6" s="4">
+        <v>3.4329999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="B7" s="4">
+        <v>3.4809999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="B8" s="4">
+        <v>3.605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="B9" s="4">
+        <v>4.024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="B10" s="4">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="B11" s="4">
+        <v>3.504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="B12" s="4">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="B13" s="4">
+        <v>3.1970000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="B14" s="4">
+        <v>3.157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="B15" s="4">
+        <v>3.0649999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="B16" s="4">
+        <v>2.9980000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="B17" s="4">
+        <v>3.3809999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="B18" s="4">
+        <v>3.4929999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="B19" s="4">
+        <v>3.5979999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="B20" s="4">
+        <v>3.6110000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="B21" s="4">
+        <v>4.101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="B22" s="4">
+        <v>4.1959999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="B23" s="4">
+        <v>3.5870000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="B24" s="4">
+        <v>3.536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="B25" s="4">
+        <v>3.2189999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="B26" s="4">
+        <v>3.2839999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="B27" s="4">
+        <v>3.1070000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="B28" s="4">
+        <v>3.0489999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="B29" s="4">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="B30" s="4">
+        <v>3.6720000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="B31" s="4">
+        <v>3.6589999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="B32" s="4">
+        <v>3.871</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="B33" s="4">
+        <v>4.2270000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="B34" s="4">
+        <v>4.3090000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="B35" s="4">
+        <v>3.7440000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="B36" s="4">
+        <v>3.6989999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="B37" s="4">
+        <v>3.323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="B38" s="4">
+        <v>3.4460000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="B39" s="4">
+        <v>3.2469999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="B40" s="4">
+        <v>3.1890000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="B41" s="4">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="B42" s="4">
+        <v>3.7970000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="B43" s="4">
+        <v>3.8780000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="B44" s="4">
+        <v>3.8980000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="B45" s="4">
+        <v>4.4009999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="B46" s="4">
+        <v>4.3789999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="B47" s="4">
+        <v>3.8380000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="B48" s="4">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="B49" s="4">
+        <v>3.4420000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="B50" s="4">
+        <v>3.5590000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="B51" s="4">
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="B52" s="4">
+        <v>3.206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="B53" s="4">
+        <v>3.6859999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="B54" s="4">
+        <v>3.7509999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="B55" s="4">
+        <v>3.9470000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="B56" s="4">
+        <v>3.996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="B57" s="4">
+        <v>4.4980000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="BE1" s="7" t="s">
+      <c r="B58" s="4">
+        <v>4.4550000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="B59" s="4">
+        <v>3.9239999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="B60" s="4">
+        <v>3.8580000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="B61" s="4">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="B62" s="4">
+        <v>3.5659999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="B63" s="4">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="B64" s="4">
+        <v>3.2869999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="BL1" s="7" t="s">
+      <c r="B65" s="4">
+        <v>3.6440000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="B66" s="4">
+        <v>3.8940000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="B67" s="4">
+        <v>3.9860000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="BO1" s="7" t="s">
+      <c r="B68" s="4">
+        <v>4.0449999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="BP1" s="7" t="s">
+      <c r="B69" s="4">
+        <v>4.4980000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="BQ1" s="7" t="s">
+      <c r="B70" s="4">
+        <v>4.4560000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="BR1" s="7" t="s">
+      <c r="B71" s="4">
+        <v>3.9849999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="BS1" s="7" t="s">
+      <c r="B72" s="4">
+        <v>3.9340000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BT1" s="7" t="s">
+      <c r="B73" s="4">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="BU1" s="7" t="s">
+      <c r="B74" s="4">
+        <v>3.6909999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BV1" s="7" t="s">
+      <c r="B75" s="4">
+        <v>3.484</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="BW1" s="7" t="s">
+      <c r="B76" s="4">
+        <v>3.3639999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="BX1" s="7" t="s">
+      <c r="B77" s="4">
+        <v>3.8050000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="BY1" s="7" t="s">
+      <c r="B78" s="4">
+        <v>3.9740000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="BZ1" s="7" t="s">
+      <c r="B79" s="4">
+        <v>3.956</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="CA1" s="7" t="s">
+      <c r="B80" s="4">
+        <v>4.0880000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="CB1" s="7" t="s">
+      <c r="B81" s="4">
+        <v>4.5410000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="B82" s="4">
+        <v>4.5519999999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="CD1" s="7" t="s">
+      <c r="B83" s="4">
+        <v>4.0519999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="CE1" s="7" t="s">
+      <c r="B84" s="4">
+        <v>4.0090000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="B85" s="4">
+        <v>3.7080000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="CG1" s="7" t="s">
+      <c r="B86" s="4">
+        <v>3.6629999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="CH1" s="7" t="s">
+      <c r="B87" s="4">
+        <v>3.5569999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="B88" s="4">
+        <v>3.4289999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="CJ1" s="7" t="s">
+      <c r="B89" s="4">
+        <v>3.7320000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="CK1" s="7" t="s">
+      <c r="B90" s="4">
+        <v>3.895</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="CL1" s="7" t="s">
+      <c r="B91" s="4">
+        <v>3.9940000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="B92" s="4">
+        <v>3.9550000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="B93" s="4">
+        <v>4.4450000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="CO1" s="7" t="s">
+      <c r="B94" s="4">
+        <v>4.4930000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="CP1" s="7" t="s">
+      <c r="B95" s="4">
+        <v>3.9380000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="CQ1" s="7" t="s">
+      <c r="B96" s="4">
+        <v>3.9329999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="CR1" s="7" t="s">
+      <c r="B97" s="4">
+        <v>3.528</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="B98" s="4">
+        <v>3.6309999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="B99" s="4">
+        <v>3.3969999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="CU1" s="7" t="s">
+      <c r="B100" s="4">
+        <v>3.3420000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="CV1" s="7" t="s">
+      <c r="B101" s="4">
+        <v>3.7080000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="B102" s="4">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="B103" s="4">
+        <v>4.0540000000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="B104" s="4">
+        <v>4.0629999999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="B105" s="4">
+        <v>4.5289999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="DA1" s="7" t="s">
+      <c r="B106" s="4">
+        <v>4.5890000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="DB1" s="7" t="s">
+      <c r="B107" s="4">
+        <v>4.0410000000000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="DC1" s="7" t="s">
+      <c r="B108" s="4">
+        <v>4.0629999999999997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="DD1" s="7" t="s">
+      <c r="B109" s="4">
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="DE1" s="7" t="s">
+      <c r="B110" s="4">
+        <v>3.6259999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="DF1" s="7" t="s">
+      <c r="B111" s="4">
+        <v>3.4319999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="DG1" s="7" t="s">
+      <c r="B112" s="4">
+        <v>3.4049999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="DH1" s="7" t="s">
+      <c r="B113" s="4">
+        <v>3.819</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="DI1" s="7" t="s">
+      <c r="B114" s="4">
+        <v>4.1369999999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="DJ1" s="7" t="s">
+      <c r="B115" s="4">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="DK1" s="7" t="s">
+      <c r="B116" s="4">
+        <v>4.194</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="DL1" s="7" t="s">
+      <c r="B117" s="4">
+        <v>4.665</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="DM1" s="7" t="s">
+      <c r="B118" s="4">
+        <v>4.6470000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="DN1" s="7" t="s">
+      <c r="B119" s="4">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DO1" s="7" t="s">
+      <c r="B120" s="4">
+        <v>4.0860000000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="DP1" s="7" t="s">
+      <c r="B121" s="4">
+        <v>3.7250000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="DQ1" s="7" t="s">
+      <c r="B122" s="4">
+        <v>3.6379999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="DR1" s="7" t="s">
+      <c r="B123" s="4">
+        <v>3.6589999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="DS1" s="7" t="s">
+      <c r="B124" s="4">
+        <v>3.5230000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="DT1" s="7" t="s">
+      <c r="B125" s="4">
+        <v>3.9460000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="DU1" s="7" t="s">
+      <c r="B126" s="4">
+        <v>4.1669999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="DV1" s="7" t="s">
+      <c r="B127" s="4">
+        <v>4.2050000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="DW1" s="7" t="s">
+      <c r="B128" s="4">
+        <v>4.3109999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="DX1" s="7" t="s">
+      <c r="B129" s="4">
+        <v>4.7050000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="DY1" s="7" t="s">
+      <c r="B130" s="4">
+        <v>4.6890000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="DZ1" s="7" t="s">
+      <c r="B131" s="4">
+        <v>4.2119999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="EA1" s="7" t="s">
+      <c r="B132" s="4">
+        <v>4.1890000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="EB1" s="7" t="s">
+      <c r="B133" s="4">
+        <v>3.7749999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="EC1" s="7" t="s">
+      <c r="B134" s="4">
+        <v>3.8769999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="ED1" s="7" t="s">
+      <c r="B135" s="4">
+        <v>3.6909999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="EE1" s="7" t="s">
+      <c r="B136" s="4">
+        <v>3.3860000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="EF1" s="7" t="s">
+      <c r="B137" s="4">
+        <v>3.9430000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="EG1" s="7" t="s">
+      <c r="B138" s="4">
+        <v>4.0259999999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="EH1" s="7" t="s">
+      <c r="B139" s="4">
+        <v>4.1680000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="EI1" s="7" t="s">
+      <c r="B140" s="4">
+        <v>4.2549999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="EJ1" s="7" t="s">
+      <c r="B141" s="4">
+        <v>4.681</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="EK1" s="7" t="s">
+      <c r="B142" s="4">
+        <v>4.6769999999999996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="EL1" s="7" t="s">
+      <c r="B143" s="4">
+        <v>4.1959999999999997</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="EM1" s="7" t="s">
+      <c r="B144" s="4">
+        <v>4.1289999999999996</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="EN1" s="7" t="s">
+      <c r="B145" s="4">
+        <v>3.835</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="EO1" s="7" t="s">
+      <c r="B146" s="4">
+        <v>3.7480000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="EP1" s="7" t="s">
+      <c r="B147" s="4">
+        <v>3.593</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="EQ1" s="7" t="s">
+      <c r="B148" s="4">
+        <v>3.4329999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="ER1" s="7" t="s">
+      <c r="B149" s="4">
+        <v>3.9180000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="ES1" s="7" t="s">
+      <c r="B150" s="4">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="ET1" s="7" t="s">
+      <c r="B151" s="4">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="EU1" s="7" t="s">
+      <c r="B152" s="4">
+        <v>4.2629999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="EV1" s="7" t="s">
+      <c r="B153" s="4">
+        <v>4.7389999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="EW1" s="7" t="s">
+      <c r="B154" s="4">
+        <v>4.7539999999999996</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="EX1" s="7" t="s">
+      <c r="B155" s="4">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="EY1" s="7" t="s">
+      <c r="B156" s="4">
+        <v>4.2510000000000003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="EZ1" s="7" t="s">
+      <c r="B157" s="4">
+        <v>3.7930000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="FA1" s="7" t="s">
+      <c r="B158" s="4">
+        <v>3.867</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="FB1" s="7" t="s">
+      <c r="B159" s="4">
+        <v>3.6960000000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="FC1" s="7" t="s">
+      <c r="B160" s="4">
+        <v>3.4689999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="FD1" s="7" t="s">
+      <c r="B161" s="4">
+        <v>3.9319999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="FE1" s="7" t="s">
+      <c r="B162" s="4">
+        <v>4.0919999999999996</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="FF1" s="7" t="s">
+      <c r="B163" s="4">
+        <v>4.1429999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="FG1" s="7" t="s">
+      <c r="B164" s="4">
+        <v>4.3390000000000004</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="FH1" s="7" t="s">
+      <c r="B165" s="4">
+        <v>4.665</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="FI1" s="7" t="s">
+      <c r="B166" s="4">
+        <v>4.7279999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="FJ1" s="7" t="s">
+      <c r="B167" s="4">
+        <v>4.202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="FK1" s="7" t="s">
+      <c r="B168" s="4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="FL1" s="7" t="s">
+      <c r="B169" s="4">
+        <v>3.7610000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="FM1" s="7" t="s">
+      <c r="B170" s="4">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="FN1" s="7" t="s">
+      <c r="B171" s="4">
+        <v>3.6840000000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="FO1" s="7" t="s">
+      <c r="B172" s="4">
+        <v>3.5339999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="FP1" s="7" t="s">
+      <c r="B173" s="4">
+        <v>3.9449999999999998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="FQ1" s="7" t="s">
+      <c r="B174" s="4">
+        <v>4.1859999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="FR1" s="7" t="s">
+      <c r="B175" s="4">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="FS1" s="7" t="s">
+      <c r="B176" s="4">
+        <v>4.3890000000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="FT1" s="7" t="s">
+      <c r="B177" s="4">
+        <v>4.7679999999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="FU1" s="7" t="s">
+      <c r="B178" s="4">
+        <v>4.7830000000000004</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="FV1" s="7" t="s">
+      <c r="B179" s="4">
+        <v>4.2610000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="FW1" s="7" t="s">
+      <c r="B180" s="4">
+        <v>4.3289999999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="FX1" s="7" t="s">
+      <c r="B181" s="4">
+        <v>3.7970000000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="FY1" s="7" t="s">
+      <c r="B182" s="4">
+        <v>4.0330000000000004</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="FZ1" s="7" t="s">
+      <c r="B183" s="4">
+        <v>3.6579999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="GA1" s="7" t="s">
+      <c r="B184" s="4">
+        <v>3.5419999999999998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="GB1" s="7" t="s">
+      <c r="B185" s="4">
+        <v>3.9670000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="GC1" s="7" t="s">
+      <c r="B186" s="4">
+        <v>4.0880000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="GD1" s="7" t="s">
+      <c r="B187" s="4">
+        <v>4.181</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="GE1" s="7" t="s">
+      <c r="B188" s="4">
+        <v>4.3230000000000004</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="GF1" s="7" t="s">
+      <c r="B189" s="4">
+        <v>4.8230000000000004</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="GG1" s="7" t="s">
+      <c r="B190" s="4">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="GH1" s="7" t="s">
+      <c r="B191" s="4">
+        <v>4.2229999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="GI1" s="7" t="s">
+      <c r="B192" s="4">
+        <v>4.2640000000000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="GJ1" s="7" t="s">
+      <c r="B193" s="4">
+        <v>3.8090000000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="GK1" s="7" t="s">
+      <c r="B194" s="4">
+        <v>3.9929999999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="GL1" s="7" t="s">
+      <c r="B195" s="4">
+        <v>3.774</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="GM1" s="7" t="s">
+      <c r="B196" s="4">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="GN1" s="7" t="s">
+      <c r="B197" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="GO1" s="7" t="s">
+      <c r="B198" s="4">
+        <v>4.3159999999999998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="GP1" s="7" t="s">
+      <c r="B199" s="4">
+        <v>4.391</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="GQ1" s="7" t="s">
+      <c r="B200" s="4">
+        <v>4.5410000000000004</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="GR1" s="7" t="s">
+      <c r="B201" s="4">
+        <v>4.9080000000000004</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="GS1" s="7" t="s">
+      <c r="B202" s="4">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="GT1" s="7" t="s">
+      <c r="B203" s="4">
+        <v>4.3479999999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="GU1" s="7" t="s">
+      <c r="B204" s="4">
+        <v>4.4249999999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="GV1" s="7" t="s">
+      <c r="B205" s="4">
+        <v>3.984</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="GW1" s="7" t="s">
+      <c r="B206" s="4">
+        <v>4.0309999999999997</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="GX1" s="7" t="s">
+      <c r="B207" s="4">
+        <v>3.8839999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="GY1" s="7" t="s">
+      <c r="B208" s="4">
+        <v>3.6259999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="GZ1" s="7" t="s">
+      <c r="B209" s="4">
+        <v>4.1159999999999997</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="HA1" s="7" t="s">
+      <c r="B210" s="4">
+        <v>4.2270000000000003</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="HB1" s="7" t="s">
+      <c r="B211" s="4">
+        <v>4.3760000000000003</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="HC1" s="7" t="s">
+      <c r="B212" s="4">
+        <v>4.4550000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="HD1" s="7" t="s">
+      <c r="B213" s="4">
+        <v>4.8070000000000004</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="HE1" s="7" t="s">
+      <c r="B214" s="4">
+        <v>4.8019999999999996</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="HF1" s="7" t="s">
+      <c r="B215" s="4">
+        <v>4.2839999999999998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="HG1" s="7" t="s">
+      <c r="B216" s="4">
+        <v>4.4089999999999998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="HH1" s="7" t="s">
+      <c r="B217" s="4">
+        <v>3.7869999999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="HI1" s="7" t="s">
+      <c r="B218" s="4">
+        <v>3.8660000000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="HJ1" s="7" t="s">
+      <c r="B219" s="4">
+        <v>3.8170000000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="HK1" s="7" t="s">
+      <c r="B220" s="4">
+        <v>3.714</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="HL1" s="7" t="s">
+      <c r="B221" s="4">
+        <v>4.1130000000000004</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="HM1" s="7" t="s">
+      <c r="B222" s="4">
+        <v>4.335</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="HN1" s="7" t="s">
+      <c r="B223" s="4">
+        <v>4.2930000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="HO1" s="7" t="s">
+      <c r="B224" s="4">
+        <v>4.5490000000000004</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="HP1" s="7" t="s">
+      <c r="B225" s="4">
+        <v>4.8760000000000003</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="HQ1" s="7" t="s">
+      <c r="B226" s="4">
+        <v>4.8780000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="HR1" s="7" t="s">
+      <c r="B227" s="4">
+        <v>4.3390000000000004</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="HS1" s="7" t="s">
+      <c r="B228" s="4">
+        <v>4.4180000000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="HT1" s="7" t="s">
+      <c r="B229" s="4">
+        <v>3.9670000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="HU1" s="7" t="s">
+      <c r="B230" s="4">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="HV1" s="7" t="s">
+      <c r="B231" s="4">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="HW1" s="7" t="s">
+      <c r="B232" s="4">
+        <v>3.6509999999999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="HX1" s="7" t="s">
+      <c r="B233" s="4">
+        <v>2.4380000000000002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="HY1" s="7" t="s">
+      <c r="B234" s="4">
+        <v>1.1240000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="HZ1" s="7" t="s">
+      <c r="B235" s="4">
+        <v>2.4729999999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="IA1" s="7" t="s">
+      <c r="B236" s="4">
+        <v>3.9940000000000002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="IB1" s="7" t="s">
+      <c r="B237" s="4">
+        <v>4.7229999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="IC1" s="7" t="s">
+      <c r="B238" s="4">
+        <v>4.6859999999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="ID1" s="7" t="s">
+      <c r="B239" s="4">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="IE1" s="7" t="s">
+      <c r="B240" s="4">
+        <v>4.0720000000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="IF1" s="7" t="s">
+      <c r="B241" s="4">
+        <v>2.4969999999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="IG1" s="7" t="s">
+      <c r="B242" s="4">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="IH1" s="7" t="s">
+      <c r="B243" s="4">
+        <v>3.4049999999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="II1" s="7" t="s">
+      <c r="B244" s="4">
+        <v>3.3319999999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="IJ1" s="7" t="s">
+      <c r="B245" s="4">
+        <v>3.6539999999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="IK1" s="7" t="s">
+      <c r="B246" s="4">
+        <v>3.044</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="IL1" s="7" t="s">
+      <c r="B247" s="4">
+        <v>3.8820000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="IM1" s="7" t="s">
+      <c r="B248" s="4">
+        <v>4.3550000000000004</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="IN1" s="7" t="s">
+      <c r="B249" s="4">
+        <v>4.931</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="IO1" s="7" t="s">
+      <c r="B250" s="4">
+        <v>4.8490000000000002</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="IP1" s="7" t="s">
+      <c r="B251" s="4">
+        <v>4.3849999999999998</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="IQ1" s="7" t="s">
+      <c r="B252" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="IR1" s="7" t="s">
+      <c r="B253" s="4">
+        <v>3.927</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="IS1" s="7" t="s">
+      <c r="B254" s="4">
+        <v>3.9710000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="IT1" s="7" t="s">
+      <c r="B255" s="4">
+        <v>3.6989999999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="IU1" s="7" t="s">
+      <c r="B256" s="4">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="IV1" s="7" t="s">
+      <c r="B257" s="4">
+        <v>3.9430000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="IW1" s="7" t="s">
+      <c r="B258" s="4">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="IX1" s="7" t="s">
+      <c r="B259" s="4">
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="IY1" s="7" t="s">
+      <c r="B260" s="4">
+        <v>4.5110000000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="IZ1" s="7" t="s">
+      <c r="B261" s="4">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="JA1" s="7" t="s">
+      <c r="B262" s="4">
+        <v>4.7949999999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="JB1" s="7" t="s">
+      <c r="B263" s="4">
+        <v>4.2990000000000004</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="JC1" s="7" t="s">
+      <c r="B264" s="4">
+        <v>4.2130000000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="JD1" s="7" t="s">
+      <c r="B265" s="4">
+        <v>3.923</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="JE1" s="7" t="s">
+      <c r="B266" s="4">
+        <v>3.8719999999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="JF1" s="7" t="s">
+      <c r="B267" s="4">
+        <v>3.7879999999999998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="JG1" s="7" t="s">
+      <c r="B268" s="4">
+        <v>3.758</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="JH1" s="7" t="s">
+      <c r="B269" s="4">
+        <v>3.9079999999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="JI1" s="7" t="s">
+      <c r="B270" s="4">
+        <v>4.0259999999999998</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="JJ1" s="7" t="s">
+      <c r="B271" s="4">
+        <v>4.3579999999999997</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="JK1" s="7" t="s">
+      <c r="B272" s="4">
+        <v>4.5759999999999996</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="JL1" s="7" t="s">
+      <c r="B273" s="4">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="JM1" s="7" t="s">
+      <c r="B274" s="4">
+        <v>4.7880000000000003</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="JN1" s="7" t="s">
+      <c r="B275" s="4">
+        <v>4.3220000000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="JO1" s="7" t="s">
+      <c r="B276" s="4">
+        <v>4.3410000000000002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="JP1" s="7" t="s">
+      <c r="B277" s="4">
+        <v>3.8740000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="JQ1" s="7" t="s">
+      <c r="B278" s="4">
+        <v>3.9220000000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="JR1" s="7" t="s">
+      <c r="B279" s="4">
+        <v>3.7770000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="JS1" s="7" t="s">
+      <c r="B280" s="4">
+        <v>3.7080000000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="JT1" s="7" t="s">
+      <c r="B281" s="4">
+        <v>4.0119999999999996</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="JU1" s="7" t="s">
+      <c r="B282" s="4">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="JV1" s="7" t="s">
+      <c r="B283" s="4">
+        <v>4.3479999999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="JW1" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="JX1" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="JY1" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="JZ1" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="KA1" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="KB1" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="KC1" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:289" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B284" s="4">
+        <v>4.4450000000000003</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B285" s="4">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="6">
-        <v>3.0019999999999998</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2.9159999999999999</v>
-      </c>
-      <c r="E2" s="6">
-        <v>3.23</v>
-      </c>
-      <c r="F2" s="6">
-        <v>3.4329999999999998</v>
-      </c>
-      <c r="G2" s="6">
-        <v>3.4809999999999999</v>
-      </c>
-      <c r="H2" s="6">
-        <v>3.605</v>
-      </c>
-      <c r="I2" s="6">
-        <v>4.024</v>
-      </c>
-      <c r="J2" s="6">
-        <v>4.09</v>
-      </c>
-      <c r="K2" s="6">
-        <v>3.504</v>
-      </c>
-      <c r="L2" s="6">
-        <v>3.47</v>
-      </c>
-      <c r="M2" s="6">
-        <v>3.1970000000000001</v>
-      </c>
-      <c r="N2" s="6">
-        <v>3.157</v>
-      </c>
-      <c r="O2" s="6">
-        <v>3.0649999999999999</v>
-      </c>
-      <c r="P2" s="6">
-        <v>2.9980000000000002</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>3.3809999999999998</v>
-      </c>
-      <c r="R2" s="6">
-        <v>3.4929999999999999</v>
-      </c>
-      <c r="S2" s="6">
-        <v>3.5979999999999999</v>
-      </c>
-      <c r="T2" s="6">
-        <v>3.6110000000000002</v>
-      </c>
-      <c r="U2" s="6">
-        <v>4.101</v>
-      </c>
-      <c r="V2" s="6">
-        <v>4.1959999999999997</v>
-      </c>
-      <c r="W2" s="6">
-        <v>3.5870000000000002</v>
-      </c>
-      <c r="X2" s="6">
-        <v>3.536</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>3.2189999999999999</v>
-      </c>
-      <c r="Z2" s="6">
-        <v>3.2839999999999998</v>
-      </c>
-      <c r="AA2" s="6">
-        <v>3.1070000000000002</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>3.0489999999999999</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>3.48</v>
-      </c>
-      <c r="AD2" s="6">
-        <v>3.6720000000000002</v>
-      </c>
-      <c r="AE2" s="6">
-        <v>3.6589999999999998</v>
-      </c>
-      <c r="AF2" s="6">
-        <v>3.871</v>
-      </c>
-      <c r="AG2" s="6">
-        <v>4.2270000000000003</v>
-      </c>
-      <c r="AH2" s="6">
-        <v>4.3090000000000002</v>
-      </c>
-      <c r="AI2" s="6">
-        <v>3.7440000000000002</v>
-      </c>
-      <c r="AJ2" s="6">
-        <v>3.6989999999999998</v>
-      </c>
-      <c r="AK2" s="6">
-        <v>3.323</v>
-      </c>
-      <c r="AL2" s="6">
-        <v>3.4460000000000002</v>
-      </c>
-      <c r="AM2" s="6">
-        <v>3.2469999999999999</v>
-      </c>
-      <c r="AN2" s="6">
-        <v>3.1890000000000001</v>
-      </c>
-      <c r="AO2" s="6">
-        <v>3.55</v>
-      </c>
-      <c r="AP2" s="6">
-        <v>3.7970000000000002</v>
-      </c>
-      <c r="AQ2" s="6">
-        <v>3.8780000000000001</v>
-      </c>
-      <c r="AR2" s="6">
-        <v>3.8980000000000001</v>
-      </c>
-      <c r="AS2" s="6">
-        <v>4.4009999999999998</v>
-      </c>
-      <c r="AT2" s="6">
-        <v>4.3789999999999996</v>
-      </c>
-      <c r="AU2" s="6">
-        <v>3.8380000000000001</v>
-      </c>
-      <c r="AV2" s="6">
-        <v>3.79</v>
-      </c>
-      <c r="AW2" s="6">
-        <v>3.4420000000000002</v>
-      </c>
-      <c r="AX2" s="6">
-        <v>3.5590000000000002</v>
-      </c>
-      <c r="AY2" s="6">
-        <v>3.375</v>
-      </c>
-      <c r="AZ2" s="6">
-        <v>3.206</v>
-      </c>
-      <c r="BA2" s="6">
-        <v>3.6859999999999999</v>
-      </c>
-      <c r="BB2" s="6">
-        <v>3.7509999999999999</v>
-      </c>
-      <c r="BC2" s="6">
-        <v>3.9470000000000001</v>
-      </c>
-      <c r="BD2" s="6">
-        <v>3.996</v>
-      </c>
-      <c r="BE2" s="6">
-        <v>4.4980000000000002</v>
-      </c>
-      <c r="BF2" s="6">
-        <v>4.4550000000000001</v>
-      </c>
-      <c r="BG2" s="6">
-        <v>3.9239999999999999</v>
-      </c>
-      <c r="BH2" s="6">
-        <v>3.8580000000000001</v>
-      </c>
-      <c r="BI2" s="6">
-        <v>3.48</v>
-      </c>
-      <c r="BJ2" s="6">
-        <v>3.5659999999999998</v>
-      </c>
-      <c r="BK2" s="6">
-        <v>3.39</v>
-      </c>
-      <c r="BL2" s="6">
-        <v>3.2869999999999999</v>
-      </c>
-      <c r="BM2" s="6">
-        <v>3.6440000000000001</v>
-      </c>
-      <c r="BN2" s="6">
-        <v>3.8940000000000001</v>
-      </c>
-      <c r="BO2" s="6">
-        <v>3.9860000000000002</v>
-      </c>
-      <c r="BP2" s="6">
-        <v>4.0449999999999999</v>
-      </c>
-      <c r="BQ2" s="6">
-        <v>4.4980000000000002</v>
-      </c>
-      <c r="BR2" s="6">
-        <v>4.4560000000000004</v>
-      </c>
-      <c r="BS2" s="6">
-        <v>3.9849999999999999</v>
-      </c>
-      <c r="BT2" s="6">
-        <v>3.9340000000000002</v>
-      </c>
-      <c r="BU2" s="6">
-        <v>3.62</v>
-      </c>
-      <c r="BV2" s="6">
-        <v>3.6909999999999998</v>
-      </c>
-      <c r="BW2" s="6">
-        <v>3.484</v>
-      </c>
-      <c r="BX2" s="6">
-        <v>3.3639999999999999</v>
-      </c>
-      <c r="BY2" s="6">
-        <v>3.8050000000000002</v>
-      </c>
-      <c r="BZ2" s="6">
-        <v>3.9740000000000002</v>
-      </c>
-      <c r="CA2" s="6">
-        <v>3.956</v>
-      </c>
-      <c r="CB2" s="6">
-        <v>4.0880000000000001</v>
-      </c>
-      <c r="CC2" s="6">
-        <v>4.5410000000000004</v>
-      </c>
-      <c r="CD2" s="6">
-        <v>4.5519999999999996</v>
-      </c>
-      <c r="CE2" s="6">
-        <v>4.0519999999999996</v>
-      </c>
-      <c r="CF2" s="6">
-        <v>4.0090000000000003</v>
-      </c>
-      <c r="CG2" s="6">
-        <v>3.7080000000000002</v>
-      </c>
-      <c r="CH2" s="6">
-        <v>3.6629999999999998</v>
-      </c>
-      <c r="CI2" s="6">
-        <v>3.5569999999999999</v>
-      </c>
-      <c r="CJ2" s="6">
-        <v>3.4289999999999998</v>
-      </c>
-      <c r="CK2" s="6">
-        <v>3.7320000000000002</v>
-      </c>
-      <c r="CL2" s="6">
-        <v>3.895</v>
-      </c>
-      <c r="CM2" s="6">
-        <v>3.9940000000000002</v>
-      </c>
-      <c r="CN2" s="6">
-        <v>3.9550000000000001</v>
-      </c>
-      <c r="CO2" s="6">
-        <v>4.4450000000000003</v>
-      </c>
-      <c r="CP2" s="6">
-        <v>4.4930000000000003</v>
-      </c>
-      <c r="CQ2" s="6">
-        <v>3.9380000000000002</v>
-      </c>
-      <c r="CR2" s="6">
-        <v>3.9329999999999998</v>
-      </c>
-      <c r="CS2" s="6">
-        <v>3.528</v>
-      </c>
-      <c r="CT2" s="6">
-        <v>3.6309999999999998</v>
-      </c>
-      <c r="CU2" s="6">
-        <v>3.3969999999999998</v>
-      </c>
-      <c r="CV2" s="6">
-        <v>3.3420000000000001</v>
-      </c>
-      <c r="CW2" s="6">
-        <v>3.7080000000000002</v>
-      </c>
-      <c r="CX2" s="6">
-        <v>3.96</v>
-      </c>
-      <c r="CY2" s="6">
-        <v>4.0540000000000003</v>
-      </c>
-      <c r="CZ2" s="6">
-        <v>4.0629999999999997</v>
-      </c>
-      <c r="DA2" s="6">
-        <v>4.5289999999999999</v>
-      </c>
-      <c r="DB2" s="6">
-        <v>4.5890000000000004</v>
-      </c>
-      <c r="DC2" s="6">
-        <v>4.0410000000000004</v>
-      </c>
-      <c r="DD2" s="6">
-        <v>4.0629999999999997</v>
-      </c>
-      <c r="DE2" s="6">
-        <v>3.625</v>
-      </c>
-      <c r="DF2" s="6">
-        <v>3.6259999999999999</v>
-      </c>
-      <c r="DG2" s="6">
-        <v>3.4319999999999999</v>
-      </c>
-      <c r="DH2" s="6">
-        <v>3.4049999999999998</v>
-      </c>
-      <c r="DI2" s="6">
-        <v>3.819</v>
-      </c>
-      <c r="DJ2" s="6">
-        <v>4.1369999999999996</v>
-      </c>
-      <c r="DK2" s="6">
-        <v>4.17</v>
-      </c>
-      <c r="DL2" s="6">
-        <v>4.194</v>
-      </c>
-      <c r="DM2" s="6">
-        <v>4.665</v>
-      </c>
-      <c r="DN2" s="6">
-        <v>4.6470000000000002</v>
-      </c>
-      <c r="DO2" s="6">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="DP2" s="6">
-        <v>4.0860000000000003</v>
-      </c>
-      <c r="DQ2" s="6">
-        <v>3.7250000000000001</v>
-      </c>
-      <c r="DR2" s="6">
-        <v>3.6379999999999999</v>
-      </c>
-      <c r="DS2" s="6">
-        <v>3.6589999999999998</v>
-      </c>
-      <c r="DT2" s="6">
-        <v>3.5230000000000001</v>
-      </c>
-      <c r="DU2" s="6">
-        <v>3.9460000000000002</v>
-      </c>
-      <c r="DV2" s="6">
-        <v>4.1669999999999998</v>
-      </c>
-      <c r="DW2" s="6">
-        <v>4.2050000000000001</v>
-      </c>
-      <c r="DX2" s="6">
-        <v>4.3109999999999999</v>
-      </c>
-      <c r="DY2" s="6">
-        <v>4.7050000000000001</v>
-      </c>
-      <c r="DZ2" s="6">
-        <v>4.6890000000000001</v>
-      </c>
-      <c r="EA2" s="6">
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="EB2" s="6">
-        <v>4.1890000000000001</v>
-      </c>
-      <c r="EC2" s="6">
-        <v>3.7749999999999999</v>
-      </c>
-      <c r="ED2" s="6">
-        <v>3.8769999999999998</v>
-      </c>
-      <c r="EE2" s="6">
-        <v>3.6909999999999998</v>
-      </c>
-      <c r="EF2" s="6">
-        <v>3.3860000000000001</v>
-      </c>
-      <c r="EG2" s="6">
-        <v>3.9430000000000001</v>
-      </c>
-      <c r="EH2" s="6">
-        <v>4.0259999999999998</v>
-      </c>
-      <c r="EI2" s="6">
-        <v>4.1680000000000001</v>
-      </c>
-      <c r="EJ2" s="6">
-        <v>4.2549999999999999</v>
-      </c>
-      <c r="EK2" s="6">
-        <v>4.681</v>
-      </c>
-      <c r="EL2" s="6">
-        <v>4.6769999999999996</v>
-      </c>
-      <c r="EM2" s="6">
-        <v>4.1959999999999997</v>
-      </c>
-      <c r="EN2" s="6">
-        <v>4.1289999999999996</v>
-      </c>
-      <c r="EO2" s="6">
-        <v>3.835</v>
-      </c>
-      <c r="EP2" s="6">
-        <v>3.7480000000000002</v>
-      </c>
-      <c r="EQ2" s="6">
-        <v>3.593</v>
-      </c>
-      <c r="ER2" s="6">
-        <v>3.4329999999999998</v>
-      </c>
-      <c r="ES2" s="6">
-        <v>3.9180000000000001</v>
-      </c>
-      <c r="ET2" s="6">
-        <v>4.04</v>
-      </c>
-      <c r="EU2" s="6">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="EV2" s="6">
-        <v>4.2629999999999999</v>
-      </c>
-      <c r="EW2" s="6">
-        <v>4.7389999999999999</v>
-      </c>
-      <c r="EX2" s="6">
-        <v>4.7539999999999996</v>
-      </c>
-      <c r="EY2" s="6">
-        <v>4.22</v>
-      </c>
-      <c r="EZ2" s="6">
-        <v>4.2510000000000003</v>
-      </c>
-      <c r="FA2" s="6">
-        <v>3.7930000000000001</v>
-      </c>
-      <c r="FB2" s="6">
-        <v>3.867</v>
-      </c>
-      <c r="FC2" s="6">
-        <v>3.6960000000000002</v>
-      </c>
-      <c r="FD2" s="6">
-        <v>3.4689999999999999</v>
-      </c>
-      <c r="FE2" s="6">
-        <v>3.9319999999999999</v>
-      </c>
-      <c r="FF2" s="6">
-        <v>4.0919999999999996</v>
-      </c>
-      <c r="FG2" s="6">
-        <v>4.1429999999999998</v>
-      </c>
-      <c r="FH2" s="6">
-        <v>4.3390000000000004</v>
-      </c>
-      <c r="FI2" s="6">
-        <v>4.665</v>
-      </c>
-      <c r="FJ2" s="6">
-        <v>4.7279999999999998</v>
-      </c>
-      <c r="FK2" s="6">
-        <v>4.202</v>
-      </c>
-      <c r="FL2" s="6">
-        <v>4.3</v>
-      </c>
-      <c r="FM2" s="6">
-        <v>3.7610000000000001</v>
-      </c>
-      <c r="FN2" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="FO2" s="6">
-        <v>3.6840000000000002</v>
-      </c>
-      <c r="FP2" s="6">
-        <v>3.5339999999999998</v>
-      </c>
-      <c r="FQ2" s="6">
-        <v>3.9449999999999998</v>
-      </c>
-      <c r="FR2" s="6">
-        <v>4.1859999999999999</v>
-      </c>
-      <c r="FS2" s="6">
-        <v>4.26</v>
-      </c>
-      <c r="FT2" s="6">
-        <v>4.3890000000000002</v>
-      </c>
-      <c r="FU2" s="6">
-        <v>4.7679999999999998</v>
-      </c>
-      <c r="FV2" s="6">
-        <v>4.7830000000000004</v>
-      </c>
-      <c r="FW2" s="6">
-        <v>4.2610000000000001</v>
-      </c>
-      <c r="FX2" s="6">
-        <v>4.3289999999999997</v>
-      </c>
-      <c r="FY2" s="6">
-        <v>3.7970000000000002</v>
-      </c>
-      <c r="FZ2" s="6">
-        <v>4.0330000000000004</v>
-      </c>
-      <c r="GA2" s="6">
-        <v>3.6579999999999999</v>
-      </c>
-      <c r="GB2" s="6">
-        <v>3.5419999999999998</v>
-      </c>
-      <c r="GC2" s="6">
-        <v>3.9670000000000001</v>
-      </c>
-      <c r="GD2" s="6">
-        <v>4.0880000000000001</v>
-      </c>
-      <c r="GE2" s="6">
-        <v>4.181</v>
-      </c>
-      <c r="GF2" s="6">
-        <v>4.3230000000000004</v>
-      </c>
-      <c r="GG2" s="6">
+      <c r="B286" s="4">
         <v>4.8230000000000004</v>
       </c>
-      <c r="GH2" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="GI2" s="6">
-        <v>4.2229999999999999</v>
-      </c>
-      <c r="GJ2" s="6">
-        <v>4.2640000000000002</v>
-      </c>
-      <c r="GK2" s="6">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="GL2" s="6">
-        <v>3.9929999999999999</v>
-      </c>
-      <c r="GM2" s="6">
-        <v>3.774</v>
-      </c>
-      <c r="GN2" s="6">
-        <v>3.73</v>
-      </c>
-      <c r="GO2" s="6">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="GP2" s="6">
-        <v>4.3159999999999998</v>
-      </c>
-      <c r="GQ2" s="6">
-        <v>4.391</v>
-      </c>
-      <c r="GR2" s="6">
-        <v>4.5410000000000004</v>
-      </c>
-      <c r="GS2" s="6">
-        <v>4.9080000000000004</v>
-      </c>
-      <c r="GT2" s="6">
-        <v>4.8360000000000003</v>
-      </c>
-      <c r="GU2" s="6">
-        <v>4.3479999999999999</v>
-      </c>
-      <c r="GV2" s="6">
-        <v>4.4249999999999998</v>
-      </c>
-      <c r="GW2" s="6">
-        <v>3.984</v>
-      </c>
-      <c r="GX2" s="6">
-        <v>4.0309999999999997</v>
-      </c>
-      <c r="GY2" s="6">
-        <v>3.8839999999999999</v>
-      </c>
-      <c r="GZ2" s="6">
-        <v>3.6259999999999999</v>
-      </c>
-      <c r="HA2" s="6">
-        <v>4.1159999999999997</v>
-      </c>
-      <c r="HB2" s="6">
-        <v>4.2270000000000003</v>
-      </c>
-      <c r="HC2" s="6">
-        <v>4.3760000000000003</v>
-      </c>
-      <c r="HD2" s="6">
-        <v>4.4550000000000001</v>
-      </c>
-      <c r="HE2" s="6">
-        <v>4.8070000000000004</v>
-      </c>
-      <c r="HF2" s="6">
-        <v>4.8019999999999996</v>
-      </c>
-      <c r="HG2" s="6">
-        <v>4.2839999999999998</v>
-      </c>
-      <c r="HH2" s="6">
-        <v>4.4089999999999998</v>
-      </c>
-      <c r="HI2" s="6">
-        <v>3.7869999999999999</v>
-      </c>
-      <c r="HJ2" s="6">
-        <v>3.8660000000000001</v>
-      </c>
-      <c r="HK2" s="6">
-        <v>3.8170000000000002</v>
-      </c>
-      <c r="HL2" s="6">
-        <v>3.714</v>
-      </c>
-      <c r="HM2" s="6">
-        <v>4.1130000000000004</v>
-      </c>
-      <c r="HN2" s="6">
-        <v>4.335</v>
-      </c>
-      <c r="HO2" s="6">
-        <v>4.2930000000000001</v>
-      </c>
-      <c r="HP2" s="6">
-        <v>4.5490000000000004</v>
-      </c>
-      <c r="HQ2" s="6">
-        <v>4.8760000000000003</v>
-      </c>
-      <c r="HR2" s="6">
-        <v>4.8780000000000001</v>
-      </c>
-      <c r="HS2" s="6">
-        <v>4.3390000000000004</v>
-      </c>
-      <c r="HT2" s="6">
-        <v>4.4180000000000001</v>
-      </c>
-      <c r="HU2" s="6">
-        <v>3.9670000000000001</v>
-      </c>
-      <c r="HV2" s="6">
-        <v>4.1020000000000003</v>
-      </c>
-      <c r="HW2" s="6">
-        <v>3.84</v>
-      </c>
-      <c r="HX2" s="6">
-        <v>3.6509999999999998</v>
-      </c>
-      <c r="HY2" s="6">
-        <v>2.4380000000000002</v>
-      </c>
-      <c r="HZ2" s="6">
-        <v>1.1240000000000001</v>
-      </c>
-      <c r="IA2" s="6">
-        <v>2.4729999999999999</v>
-      </c>
-      <c r="IB2" s="6">
-        <v>3.9940000000000002</v>
-      </c>
-      <c r="IC2" s="6">
-        <v>4.7229999999999999</v>
-      </c>
-      <c r="ID2" s="6">
-        <v>4.6859999999999999</v>
-      </c>
-      <c r="IE2" s="6">
-        <v>4.1020000000000003</v>
-      </c>
-      <c r="IF2" s="6">
-        <v>4.0720000000000001</v>
-      </c>
-      <c r="IG2" s="6">
-        <v>2.4969999999999999</v>
-      </c>
-      <c r="IH2" s="6">
-        <v>3.37</v>
-      </c>
-      <c r="II2" s="6">
-        <v>3.4049999999999998</v>
-      </c>
-      <c r="IJ2" s="6">
-        <v>3.3319999999999999</v>
-      </c>
-      <c r="IK2" s="6">
-        <v>3.6539999999999999</v>
-      </c>
-      <c r="IL2" s="6">
-        <v>3.044</v>
-      </c>
-      <c r="IM2" s="6">
-        <v>3.8820000000000001</v>
-      </c>
-      <c r="IN2" s="6">
-        <v>4.3550000000000004</v>
-      </c>
-      <c r="IO2" s="6">
-        <v>4.931</v>
-      </c>
-      <c r="IP2" s="6">
-        <v>4.8490000000000002</v>
-      </c>
-      <c r="IQ2" s="6">
-        <v>4.3849999999999998</v>
-      </c>
-      <c r="IR2" s="6">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="IS2" s="6">
-        <v>3.927</v>
-      </c>
-      <c r="IT2" s="6">
-        <v>3.9710000000000001</v>
-      </c>
-      <c r="IU2" s="6">
-        <v>3.6989999999999998</v>
-      </c>
-      <c r="IV2" s="6">
-        <v>3.74</v>
-      </c>
-      <c r="IW2" s="6">
-        <v>3.9430000000000001</v>
-      </c>
-      <c r="IX2" s="6">
-        <v>3.98</v>
-      </c>
-      <c r="IY2" s="6">
-        <v>4.375</v>
-      </c>
-      <c r="IZ2" s="6">
-        <v>4.5110000000000001</v>
-      </c>
-      <c r="JA2" s="6">
-        <v>4.8360000000000003</v>
-      </c>
-      <c r="JB2" s="6">
-        <v>4.7949999999999999</v>
-      </c>
-      <c r="JC2" s="6">
-        <v>4.2990000000000004</v>
-      </c>
-      <c r="JD2" s="6">
-        <v>4.2130000000000001</v>
-      </c>
-      <c r="JE2" s="6">
-        <v>3.923</v>
-      </c>
-      <c r="JF2" s="6">
-        <v>3.8719999999999999</v>
-      </c>
-      <c r="JG2" s="6">
-        <v>3.7879999999999998</v>
-      </c>
-      <c r="JH2" s="6">
-        <v>3.758</v>
-      </c>
-      <c r="JI2" s="6">
-        <v>3.9079999999999999</v>
-      </c>
-      <c r="JJ2" s="6">
-        <v>4.0259999999999998</v>
-      </c>
-      <c r="JK2" s="6">
-        <v>4.3579999999999997</v>
-      </c>
-      <c r="JL2" s="6">
-        <v>4.5759999999999996</v>
-      </c>
-      <c r="JM2" s="6">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="JN2" s="6">
-        <v>4.7880000000000003</v>
-      </c>
-      <c r="JO2" s="6">
-        <v>4.3220000000000001</v>
-      </c>
-      <c r="JP2" s="6">
-        <v>4.3410000000000002</v>
-      </c>
-      <c r="JQ2" s="6">
-        <v>3.8740000000000001</v>
-      </c>
-      <c r="JR2" s="6">
-        <v>3.9220000000000002</v>
-      </c>
-      <c r="JS2" s="6">
-        <v>3.7770000000000001</v>
-      </c>
-      <c r="JT2" s="6">
-        <v>3.7080000000000002</v>
-      </c>
-      <c r="JU2" s="6">
-        <v>4.0119999999999996</v>
-      </c>
-      <c r="JV2" s="6">
-        <v>3.97</v>
-      </c>
-      <c r="JW2" s="6">
-        <v>4.3479999999999999</v>
-      </c>
-      <c r="JX2" s="6">
-        <v>4.4450000000000003</v>
-      </c>
-      <c r="JY2" s="6">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="JZ2" s="6">
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287" s="4">
+        <v>4.2649999999999997</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B288" s="4">
         <v>4.8230000000000004</v>
       </c>
-      <c r="KA2" s="6">
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B289" s="4">
         <v>4.2649999999999997</v>
       </c>
-      <c r="KB2" s="6">
-        <v>4.8230000000000004</v>
-      </c>
-      <c r="KC2" s="6">
-        <v>4.2649999999999997</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/raw/Excel - trafic routier.xlsx
+++ b/data/raw/Excel - trafic routier.xlsx
@@ -8,36 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\serietemporelle\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EACAFAB-4966-4C08-A44F-C569142F5301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6626B3-B3B7-4FEC-84F6-C3B70E5641D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valeurs_mensuelles" sheetId="1" r:id="rId1"/>
-    <sheet name="caractéristiques" sheetId="2" r:id="rId2"/>
-    <sheet name="codes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">valeurs_mensuelles!$B$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">valeurs_mensuelles!$C$2:$KC$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">valeurs_mensuelles!$B$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">valeurs_mensuelles!$C$2:$KC$2</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="339">
-  <si>
-    <t>Libellé</t>
-  </si>
-  <si>
-    <t>idBank</t>
-  </si>
-  <si>
-    <t>Dernière mise à jour</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="287">
   <si>
     <t>Période</t>
   </si>
@@ -886,153 +869,6 @@
   </si>
   <si>
     <t>2024-06</t>
-  </si>
-  <si>
-    <t>001587563</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Puissance</t>
-  </si>
-  <si>
-    <t>Indicateur</t>
-  </si>
-  <si>
-    <t>Correction</t>
-  </si>
-  <si>
-    <t>Types de marchandises dans les statistiques des transports</t>
-  </si>
-  <si>
-    <t>Localisation des ports autonomes et des aéroports français</t>
-  </si>
-  <si>
-    <t>Réseaux de transports terrestres et aériens</t>
-  </si>
-  <si>
-    <t>Types de véhicules automobiles</t>
-  </si>
-  <si>
-    <t>Livraisons de carburants pour la circulation routière</t>
-  </si>
-  <si>
-    <t>Statistiques globales diverses relatives aux transports</t>
-  </si>
-  <si>
-    <t>Série arrêtée</t>
-  </si>
-  <si>
-    <t>﻿Base de l'indice</t>
-  </si>
-  <si>
-    <t>Nature</t>
-  </si>
-  <si>
-    <t>Périodicité</t>
-  </si>
-  <si>
-    <t>Unité</t>
-  </si>
-  <si>
-    <t>Zone géographique</t>
-  </si>
-  <si>
-    <t>18/10/2024 10:23</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Parcours mensuel sur le réseau routier</t>
-  </si>
-  <si>
-    <t>Non corrigé</t>
-  </si>
-  <si>
-    <t>Sans objet</t>
-  </si>
-  <si>
-    <t>Routes nationales</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>Valeur absolue</t>
-  </si>
-  <si>
-    <t>Mensuelle</t>
-  </si>
-  <si>
-    <t>véhicules-kilomètres</t>
-  </si>
-  <si>
-    <t>France métropolitaine</t>
-  </si>
-  <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>Couvert par le secret statistique</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Estimation</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Prévision</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Provisoire</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Valeur semi-définitive</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Révision</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Valeur normale</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Valeur non significative</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Valeur manquante</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>Valeur atypique</t>
   </si>
   <si>
     <t>Parcours mensuel sur les routes nationales (en milliards de voitures-kilomètres)</t>
@@ -1055,7 +891,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1064,16 +900,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Open Sans"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Open Sans"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="Open Sans"/>
     </font>
@@ -1114,19 +940,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1471,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KC2"/>
+  <dimension ref="A1:B288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1482,1991 +1301,2312 @@
     <col min="1" max="1" width="30.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:289" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3.0019999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.9159999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B4" s="3">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="B5" s="3">
+        <v>3.4329999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="B6" s="3">
+        <v>3.4809999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="B7" s="3">
+        <v>3.605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="B8" s="3">
+        <v>4.024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="B9" s="3">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="B10" s="3">
+        <v>3.504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="B11" s="3">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="B12" s="3">
+        <v>3.1970000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="B13" s="3">
+        <v>3.157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="B14" s="3">
+        <v>3.0649999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="B15" s="3">
+        <v>2.9980000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="B16" s="3">
+        <v>3.3809999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="B17" s="3">
+        <v>3.4929999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="B18" s="3">
+        <v>3.5979999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="B19" s="3">
+        <v>3.6110000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="B20" s="3">
+        <v>4.101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="B21" s="3">
+        <v>4.1959999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="B22" s="3">
+        <v>3.5870000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="B23" s="3">
+        <v>3.536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="B24" s="3">
+        <v>3.2189999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="B25" s="3">
+        <v>3.2839999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="B26" s="3">
+        <v>3.1070000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="B27" s="3">
+        <v>3.0489999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="B28" s="3">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="B29" s="3">
+        <v>3.6720000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="B30" s="3">
+        <v>3.6589999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="B31" s="3">
+        <v>3.871</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="B32" s="3">
+        <v>4.2270000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="B33" s="3">
+        <v>4.3090000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="B34" s="3">
+        <v>3.7440000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="B35" s="3">
+        <v>3.6989999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="B36" s="3">
+        <v>3.323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="B37" s="3">
+        <v>3.4460000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="B38" s="3">
+        <v>3.2469999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="B39" s="3">
+        <v>3.1890000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="B40" s="3">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="B41" s="3">
+        <v>3.7970000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="B42" s="3">
+        <v>3.8780000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="B43" s="3">
+        <v>3.8980000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="B44" s="3">
+        <v>4.4009999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="B45" s="3">
+        <v>4.3789999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="B46" s="3">
+        <v>3.8380000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="B47" s="3">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="B48" s="3">
+        <v>3.4420000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="B49" s="3">
+        <v>3.5590000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="B50" s="3">
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="B51" s="3">
+        <v>3.206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="B52" s="3">
+        <v>3.6859999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="B53" s="3">
+        <v>3.7509999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="B54" s="3">
+        <v>3.9470000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="B55" s="3">
+        <v>3.996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="B56" s="3">
+        <v>4.4980000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="B57" s="3">
+        <v>4.4550000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BE1" s="7" t="s">
+      <c r="B58" s="3">
+        <v>3.9239999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="B59" s="3">
+        <v>3.8580000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="B60" s="3">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="B61" s="3">
+        <v>3.5659999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="B62" s="3">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="B63" s="3">
+        <v>3.2869999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="B64" s="3">
+        <v>3.6440000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BL1" s="7" t="s">
+      <c r="B65" s="3">
+        <v>3.8940000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="B66" s="3">
+        <v>3.9860000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="B67" s="3">
+        <v>4.0449999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BO1" s="7" t="s">
+      <c r="B68" s="3">
+        <v>4.4980000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BP1" s="7" t="s">
+      <c r="B69" s="3">
+        <v>4.4560000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BQ1" s="7" t="s">
+      <c r="B70" s="3">
+        <v>3.9849999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BR1" s="7" t="s">
+      <c r="B71" s="3">
+        <v>3.9340000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BS1" s="7" t="s">
+      <c r="B72" s="3">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BT1" s="7" t="s">
+      <c r="B73" s="3">
+        <v>3.6909999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BU1" s="7" t="s">
+      <c r="B74" s="3">
+        <v>3.484</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BV1" s="7" t="s">
+      <c r="B75" s="3">
+        <v>3.3639999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BW1" s="7" t="s">
+      <c r="B76" s="3">
+        <v>3.8050000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BX1" s="7" t="s">
+      <c r="B77" s="3">
+        <v>3.9740000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="BY1" s="7" t="s">
+      <c r="B78" s="3">
+        <v>3.956</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="BZ1" s="7" t="s">
+      <c r="B79" s="3">
+        <v>4.0880000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="CA1" s="7" t="s">
+      <c r="B80" s="3">
+        <v>4.5410000000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="CB1" s="7" t="s">
+      <c r="B81" s="3">
+        <v>4.5519999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="B82" s="3">
+        <v>4.0519999999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="CD1" s="7" t="s">
+      <c r="B83" s="3">
+        <v>4.0090000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="CE1" s="7" t="s">
+      <c r="B84" s="3">
+        <v>3.7080000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="B85" s="3">
+        <v>3.6629999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CG1" s="7" t="s">
+      <c r="B86" s="3">
+        <v>3.5569999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CH1" s="7" t="s">
+      <c r="B87" s="3">
+        <v>3.4289999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="B88" s="3">
+        <v>3.7320000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CJ1" s="7" t="s">
+      <c r="B89" s="3">
+        <v>3.895</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="CK1" s="7" t="s">
+      <c r="B90" s="3">
+        <v>3.9940000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CL1" s="7" t="s">
+      <c r="B91" s="3">
+        <v>3.9550000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="B92" s="3">
+        <v>4.4450000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="B93" s="3">
+        <v>4.4930000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CO1" s="7" t="s">
+      <c r="B94" s="3">
+        <v>3.9380000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CP1" s="7" t="s">
+      <c r="B95" s="3">
+        <v>3.9329999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CQ1" s="7" t="s">
+      <c r="B96" s="3">
+        <v>3.528</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CR1" s="7" t="s">
+      <c r="B97" s="3">
+        <v>3.6309999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="B98" s="3">
+        <v>3.3969999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="B99" s="3">
+        <v>3.3420000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="CU1" s="7" t="s">
+      <c r="B100" s="3">
+        <v>3.7080000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="CV1" s="7" t="s">
+      <c r="B101" s="3">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="B102" s="3">
+        <v>4.0540000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="B103" s="3">
+        <v>4.0629999999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="B104" s="3">
+        <v>4.5289999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="B105" s="3">
+        <v>4.5890000000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="DA1" s="7" t="s">
+      <c r="B106" s="3">
+        <v>4.0410000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="DB1" s="7" t="s">
+      <c r="B107" s="3">
+        <v>4.0629999999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="DC1" s="7" t="s">
+      <c r="B108" s="3">
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="DD1" s="7" t="s">
+      <c r="B109" s="3">
+        <v>3.6259999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="DE1" s="7" t="s">
+      <c r="B110" s="3">
+        <v>3.4319999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="DF1" s="7" t="s">
+      <c r="B111" s="3">
+        <v>3.4049999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="DG1" s="7" t="s">
+      <c r="B112" s="3">
+        <v>3.819</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="DH1" s="7" t="s">
+      <c r="B113" s="3">
+        <v>4.1369999999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="DI1" s="7" t="s">
+      <c r="B114" s="3">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="DJ1" s="7" t="s">
+      <c r="B115" s="3">
+        <v>4.194</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="DK1" s="7" t="s">
+      <c r="B116" s="3">
+        <v>4.665</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="DL1" s="7" t="s">
+      <c r="B117" s="3">
+        <v>4.6470000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="DM1" s="7" t="s">
+      <c r="B118" s="3">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="DN1" s="7" t="s">
+      <c r="B119" s="3">
+        <v>4.0860000000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="DO1" s="7" t="s">
+      <c r="B120" s="3">
+        <v>3.7250000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="DP1" s="7" t="s">
+      <c r="B121" s="3">
+        <v>3.6379999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="DQ1" s="7" t="s">
+      <c r="B122" s="3">
+        <v>3.6589999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="DR1" s="7" t="s">
+      <c r="B123" s="3">
+        <v>3.5230000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="DS1" s="7" t="s">
+      <c r="B124" s="3">
+        <v>3.9460000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="DT1" s="7" t="s">
+      <c r="B125" s="3">
+        <v>4.1669999999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="DU1" s="7" t="s">
+      <c r="B126" s="3">
+        <v>4.2050000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="DV1" s="7" t="s">
+      <c r="B127" s="3">
+        <v>4.3109999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DW1" s="7" t="s">
+      <c r="B128" s="3">
+        <v>4.7050000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="DX1" s="7" t="s">
+      <c r="B129" s="3">
+        <v>4.6890000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DY1" s="7" t="s">
+      <c r="B130" s="3">
+        <v>4.2119999999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="DZ1" s="7" t="s">
+      <c r="B131" s="3">
+        <v>4.1890000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="EA1" s="7" t="s">
+      <c r="B132" s="3">
+        <v>3.7749999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="EB1" s="7" t="s">
+      <c r="B133" s="3">
+        <v>3.8769999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="EC1" s="7" t="s">
+      <c r="B134" s="3">
+        <v>3.6909999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="ED1" s="7" t="s">
+      <c r="B135" s="3">
+        <v>3.3860000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="EE1" s="7" t="s">
+      <c r="B136" s="3">
+        <v>3.9430000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="EF1" s="7" t="s">
+      <c r="B137" s="3">
+        <v>4.0259999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="EG1" s="7" t="s">
+      <c r="B138" s="3">
+        <v>4.1680000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="EH1" s="7" t="s">
+      <c r="B139" s="3">
+        <v>4.2549999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="EI1" s="7" t="s">
+      <c r="B140" s="3">
+        <v>4.681</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="EJ1" s="7" t="s">
+      <c r="B141" s="3">
+        <v>4.6769999999999996</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="EK1" s="7" t="s">
+      <c r="B142" s="3">
+        <v>4.1959999999999997</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="EL1" s="7" t="s">
+      <c r="B143" s="3">
+        <v>4.1289999999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="EM1" s="7" t="s">
+      <c r="B144" s="3">
+        <v>3.835</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="EN1" s="7" t="s">
+      <c r="B145" s="3">
+        <v>3.7480000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="EO1" s="7" t="s">
+      <c r="B146" s="3">
+        <v>3.593</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="EP1" s="7" t="s">
+      <c r="B147" s="3">
+        <v>3.4329999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="EQ1" s="7" t="s">
+      <c r="B148" s="3">
+        <v>3.9180000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="ER1" s="7" t="s">
+      <c r="B149" s="3">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="ES1" s="7" t="s">
+      <c r="B150" s="3">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="ET1" s="7" t="s">
+      <c r="B151" s="3">
+        <v>4.2629999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="EU1" s="7" t="s">
+      <c r="B152" s="3">
+        <v>4.7389999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="EV1" s="7" t="s">
+      <c r="B153" s="3">
+        <v>4.7539999999999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="EW1" s="7" t="s">
+      <c r="B154" s="3">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="EX1" s="7" t="s">
+      <c r="B155" s="3">
+        <v>4.2510000000000003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="EY1" s="7" t="s">
+      <c r="B156" s="3">
+        <v>3.7930000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="EZ1" s="7" t="s">
+      <c r="B157" s="3">
+        <v>3.867</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="FA1" s="7" t="s">
+      <c r="B158" s="3">
+        <v>3.6960000000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="FB1" s="7" t="s">
+      <c r="B159" s="3">
+        <v>3.4689999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="FC1" s="7" t="s">
+      <c r="B160" s="3">
+        <v>3.9319999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="FD1" s="7" t="s">
+      <c r="B161" s="3">
+        <v>4.0919999999999996</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="FE1" s="7" t="s">
+      <c r="B162" s="3">
+        <v>4.1429999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="FF1" s="7" t="s">
+      <c r="B163" s="3">
+        <v>4.3390000000000004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="FG1" s="7" t="s">
+      <c r="B164" s="3">
+        <v>4.665</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="FH1" s="7" t="s">
+      <c r="B165" s="3">
+        <v>4.7279999999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="FI1" s="7" t="s">
+      <c r="B166" s="3">
+        <v>4.202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="FJ1" s="7" t="s">
+      <c r="B167" s="3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="FK1" s="7" t="s">
+      <c r="B168" s="3">
+        <v>3.7610000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="FL1" s="7" t="s">
+      <c r="B169" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="FM1" s="7" t="s">
+      <c r="B170" s="3">
+        <v>3.6840000000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="FN1" s="7" t="s">
+      <c r="B171" s="3">
+        <v>3.5339999999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="FO1" s="7" t="s">
+      <c r="B172" s="3">
+        <v>3.9449999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="FP1" s="7" t="s">
+      <c r="B173" s="3">
+        <v>4.1859999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="FQ1" s="7" t="s">
+      <c r="B174" s="3">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="FR1" s="7" t="s">
+      <c r="B175" s="3">
+        <v>4.3890000000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="FS1" s="7" t="s">
+      <c r="B176" s="3">
+        <v>4.7679999999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="FT1" s="7" t="s">
+      <c r="B177" s="3">
+        <v>4.7830000000000004</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="FU1" s="7" t="s">
+      <c r="B178" s="3">
+        <v>4.2610000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="FV1" s="7" t="s">
+      <c r="B179" s="3">
+        <v>4.3289999999999997</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="FW1" s="7" t="s">
+      <c r="B180" s="3">
+        <v>3.7970000000000002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="FX1" s="7" t="s">
+      <c r="B181" s="3">
+        <v>4.0330000000000004</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="FY1" s="7" t="s">
+      <c r="B182" s="3">
+        <v>3.6579999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="FZ1" s="7" t="s">
+      <c r="B183" s="3">
+        <v>3.5419999999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="GA1" s="7" t="s">
+      <c r="B184" s="3">
+        <v>3.9670000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="GB1" s="7" t="s">
+      <c r="B185" s="3">
+        <v>4.0880000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="GC1" s="7" t="s">
+      <c r="B186" s="3">
+        <v>4.181</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="GD1" s="7" t="s">
+      <c r="B187" s="3">
+        <v>4.3230000000000004</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="GE1" s="7" t="s">
+      <c r="B188" s="3">
+        <v>4.8230000000000004</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="GF1" s="7" t="s">
+      <c r="B189" s="3">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="GG1" s="7" t="s">
+      <c r="B190" s="3">
+        <v>4.2229999999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="GH1" s="7" t="s">
+      <c r="B191" s="3">
+        <v>4.2640000000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="GI1" s="7" t="s">
+      <c r="B192" s="3">
+        <v>3.8090000000000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="GJ1" s="7" t="s">
+      <c r="B193" s="3">
+        <v>3.9929999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="GK1" s="7" t="s">
+      <c r="B194" s="3">
+        <v>3.774</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="GL1" s="7" t="s">
+      <c r="B195" s="3">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="GM1" s="7" t="s">
+      <c r="B196" s="3">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="GN1" s="7" t="s">
+      <c r="B197" s="3">
+        <v>4.3159999999999998</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="GO1" s="7" t="s">
+      <c r="B198" s="3">
+        <v>4.391</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="GP1" s="7" t="s">
+      <c r="B199" s="3">
+        <v>4.5410000000000004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="GQ1" s="7" t="s">
+      <c r="B200" s="3">
+        <v>4.9080000000000004</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="GR1" s="7" t="s">
+      <c r="B201" s="3">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="GS1" s="7" t="s">
+      <c r="B202" s="3">
+        <v>4.3479999999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="GT1" s="7" t="s">
+      <c r="B203" s="3">
+        <v>4.4249999999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="GU1" s="7" t="s">
+      <c r="B204" s="3">
+        <v>3.984</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="GV1" s="7" t="s">
+      <c r="B205" s="3">
+        <v>4.0309999999999997</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="GW1" s="7" t="s">
+      <c r="B206" s="3">
+        <v>3.8839999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="GX1" s="7" t="s">
+      <c r="B207" s="3">
+        <v>3.6259999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="GY1" s="7" t="s">
+      <c r="B208" s="3">
+        <v>4.1159999999999997</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="GZ1" s="7" t="s">
+      <c r="B209" s="3">
+        <v>4.2270000000000003</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="HA1" s="7" t="s">
+      <c r="B210" s="3">
+        <v>4.3760000000000003</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="HB1" s="7" t="s">
+      <c r="B211" s="3">
+        <v>4.4550000000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="HC1" s="7" t="s">
+      <c r="B212" s="3">
+        <v>4.8070000000000004</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="HD1" s="7" t="s">
+      <c r="B213" s="3">
+        <v>4.8019999999999996</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="HE1" s="7" t="s">
+      <c r="B214" s="3">
+        <v>4.2839999999999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="HF1" s="7" t="s">
+      <c r="B215" s="3">
+        <v>4.4089999999999998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="HG1" s="7" t="s">
+      <c r="B216" s="3">
+        <v>3.7869999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="HH1" s="7" t="s">
+      <c r="B217" s="3">
+        <v>3.8660000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="HI1" s="7" t="s">
+      <c r="B218" s="3">
+        <v>3.8170000000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="HJ1" s="7" t="s">
+      <c r="B219" s="3">
+        <v>3.714</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="HK1" s="7" t="s">
+      <c r="B220" s="3">
+        <v>4.1130000000000004</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="HL1" s="7" t="s">
+      <c r="B221" s="3">
+        <v>4.335</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="HM1" s="7" t="s">
+      <c r="B222" s="3">
+        <v>4.2930000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="HN1" s="7" t="s">
+      <c r="B223" s="3">
+        <v>4.5490000000000004</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="HO1" s="7" t="s">
+      <c r="B224" s="3">
+        <v>4.8760000000000003</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="HP1" s="7" t="s">
+      <c r="B225" s="3">
+        <v>4.8780000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="HQ1" s="7" t="s">
+      <c r="B226" s="3">
+        <v>4.3390000000000004</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="HR1" s="7" t="s">
+      <c r="B227" s="3">
+        <v>4.4180000000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="HS1" s="7" t="s">
+      <c r="B228" s="3">
+        <v>3.9670000000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="HT1" s="7" t="s">
+      <c r="B229" s="3">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="HU1" s="7" t="s">
+      <c r="B230" s="3">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="HV1" s="7" t="s">
+      <c r="B231" s="3">
+        <v>3.6509999999999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="HW1" s="7" t="s">
+      <c r="B232" s="3">
+        <v>2.4380000000000002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="HX1" s="7" t="s">
+      <c r="B233" s="3">
+        <v>1.1240000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="HY1" s="7" t="s">
+      <c r="B234" s="3">
+        <v>2.4729999999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="HZ1" s="7" t="s">
+      <c r="B235" s="3">
+        <v>3.9940000000000002</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="IA1" s="7" t="s">
+      <c r="B236" s="3">
+        <v>4.7229999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="IB1" s="7" t="s">
+      <c r="B237" s="3">
+        <v>4.6859999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="IC1" s="7" t="s">
+      <c r="B238" s="3">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="ID1" s="7" t="s">
+      <c r="B239" s="3">
+        <v>4.0720000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="IE1" s="7" t="s">
+      <c r="B240" s="3">
+        <v>2.4969999999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="IF1" s="7" t="s">
+      <c r="B241" s="3">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="IG1" s="7" t="s">
+      <c r="B242" s="3">
+        <v>3.4049999999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="IH1" s="7" t="s">
+      <c r="B243" s="3">
+        <v>3.3319999999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="II1" s="7" t="s">
+      <c r="B244" s="3">
+        <v>3.6539999999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="IJ1" s="7" t="s">
+      <c r="B245" s="3">
+        <v>3.044</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="IK1" s="7" t="s">
+      <c r="B246" s="3">
+        <v>3.8820000000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="IL1" s="7" t="s">
+      <c r="B247" s="3">
+        <v>4.3550000000000004</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="IM1" s="7" t="s">
+      <c r="B248" s="3">
+        <v>4.931</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="IN1" s="7" t="s">
+      <c r="B249" s="3">
+        <v>4.8490000000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="IO1" s="7" t="s">
+      <c r="B250" s="3">
+        <v>4.3849999999999998</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="IP1" s="7" t="s">
+      <c r="B251" s="3">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="IQ1" s="7" t="s">
+      <c r="B252" s="3">
+        <v>3.927</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="IR1" s="7" t="s">
+      <c r="B253" s="3">
+        <v>3.9710000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="IS1" s="7" t="s">
+      <c r="B254" s="3">
+        <v>3.6989999999999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="IT1" s="7" t="s">
+      <c r="B255" s="3">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="IU1" s="7" t="s">
+      <c r="B256" s="3">
+        <v>3.9430000000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="IV1" s="7" t="s">
+      <c r="B257" s="3">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="IW1" s="7" t="s">
+      <c r="B258" s="3">
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="IX1" s="7" t="s">
+      <c r="B259" s="3">
+        <v>4.5110000000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="IY1" s="7" t="s">
+      <c r="B260" s="3">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="IZ1" s="7" t="s">
+      <c r="B261" s="3">
+        <v>4.7949999999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="JA1" s="7" t="s">
+      <c r="B262" s="3">
+        <v>4.2990000000000004</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="JB1" s="7" t="s">
+      <c r="B263" s="3">
+        <v>4.2130000000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="JC1" s="7" t="s">
+      <c r="B264" s="3">
+        <v>3.923</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="JD1" s="7" t="s">
+      <c r="B265" s="3">
+        <v>3.8719999999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="JE1" s="7" t="s">
+      <c r="B266" s="3">
+        <v>3.7879999999999998</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="JF1" s="7" t="s">
+      <c r="B267" s="3">
+        <v>3.758</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="JG1" s="7" t="s">
+      <c r="B268" s="3">
+        <v>3.9079999999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="JH1" s="7" t="s">
+      <c r="B269" s="3">
+        <v>4.0259999999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="JI1" s="7" t="s">
+      <c r="B270" s="3">
+        <v>4.3579999999999997</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="JJ1" s="7" t="s">
+      <c r="B271" s="3">
+        <v>4.5759999999999996</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="JK1" s="7" t="s">
+      <c r="B272" s="3">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="JL1" s="7" t="s">
+      <c r="B273" s="3">
+        <v>4.7880000000000003</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="JM1" s="7" t="s">
+      <c r="B274" s="3">
+        <v>4.3220000000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="JN1" s="7" t="s">
+      <c r="B275" s="3">
+        <v>4.3410000000000002</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="JO1" s="7" t="s">
+      <c r="B276" s="3">
+        <v>3.8740000000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="JP1" s="7" t="s">
+      <c r="B277" s="3">
+        <v>3.9220000000000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="JQ1" s="7" t="s">
+      <c r="B278" s="3">
+        <v>3.7770000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="JR1" s="7" t="s">
+      <c r="B279" s="3">
+        <v>3.7080000000000002</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="JS1" s="7" t="s">
+      <c r="B280" s="3">
+        <v>4.0119999999999996</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="JT1" s="7" t="s">
+      <c r="B281" s="3">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="JU1" s="7" t="s">
+      <c r="B282" s="3">
+        <v>4.3479999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="JV1" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="JW1" s="7" t="s">
+      <c r="B283" s="3">
+        <v>4.4450000000000003</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="JX1" s="7" t="s">
+      <c r="B284" s="3">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="JY1" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="JZ1" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="KA1" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="KB1" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="KC1" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:289" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="6">
-        <v>3.0019999999999998</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2.9159999999999999</v>
-      </c>
-      <c r="E2" s="6">
-        <v>3.23</v>
-      </c>
-      <c r="F2" s="6">
-        <v>3.4329999999999998</v>
-      </c>
-      <c r="G2" s="6">
-        <v>3.4809999999999999</v>
-      </c>
-      <c r="H2" s="6">
-        <v>3.605</v>
-      </c>
-      <c r="I2" s="6">
-        <v>4.024</v>
-      </c>
-      <c r="J2" s="6">
-        <v>4.09</v>
-      </c>
-      <c r="K2" s="6">
-        <v>3.504</v>
-      </c>
-      <c r="L2" s="6">
-        <v>3.47</v>
-      </c>
-      <c r="M2" s="6">
-        <v>3.1970000000000001</v>
-      </c>
-      <c r="N2" s="6">
-        <v>3.157</v>
-      </c>
-      <c r="O2" s="6">
-        <v>3.0649999999999999</v>
-      </c>
-      <c r="P2" s="6">
-        <v>2.9980000000000002</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>3.3809999999999998</v>
-      </c>
-      <c r="R2" s="6">
-        <v>3.4929999999999999</v>
-      </c>
-      <c r="S2" s="6">
-        <v>3.5979999999999999</v>
-      </c>
-      <c r="T2" s="6">
-        <v>3.6110000000000002</v>
-      </c>
-      <c r="U2" s="6">
-        <v>4.101</v>
-      </c>
-      <c r="V2" s="6">
-        <v>4.1959999999999997</v>
-      </c>
-      <c r="W2" s="6">
-        <v>3.5870000000000002</v>
-      </c>
-      <c r="X2" s="6">
-        <v>3.536</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>3.2189999999999999</v>
-      </c>
-      <c r="Z2" s="6">
-        <v>3.2839999999999998</v>
-      </c>
-      <c r="AA2" s="6">
-        <v>3.1070000000000002</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>3.0489999999999999</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>3.48</v>
-      </c>
-      <c r="AD2" s="6">
-        <v>3.6720000000000002</v>
-      </c>
-      <c r="AE2" s="6">
-        <v>3.6589999999999998</v>
-      </c>
-      <c r="AF2" s="6">
-        <v>3.871</v>
-      </c>
-      <c r="AG2" s="6">
-        <v>4.2270000000000003</v>
-      </c>
-      <c r="AH2" s="6">
-        <v>4.3090000000000002</v>
-      </c>
-      <c r="AI2" s="6">
-        <v>3.7440000000000002</v>
-      </c>
-      <c r="AJ2" s="6">
-        <v>3.6989999999999998</v>
-      </c>
-      <c r="AK2" s="6">
-        <v>3.323</v>
-      </c>
-      <c r="AL2" s="6">
-        <v>3.4460000000000002</v>
-      </c>
-      <c r="AM2" s="6">
-        <v>3.2469999999999999</v>
-      </c>
-      <c r="AN2" s="6">
-        <v>3.1890000000000001</v>
-      </c>
-      <c r="AO2" s="6">
-        <v>3.55</v>
-      </c>
-      <c r="AP2" s="6">
-        <v>3.7970000000000002</v>
-      </c>
-      <c r="AQ2" s="6">
-        <v>3.8780000000000001</v>
-      </c>
-      <c r="AR2" s="6">
-        <v>3.8980000000000001</v>
-      </c>
-      <c r="AS2" s="6">
-        <v>4.4009999999999998</v>
-      </c>
-      <c r="AT2" s="6">
-        <v>4.3789999999999996</v>
-      </c>
-      <c r="AU2" s="6">
-        <v>3.8380000000000001</v>
-      </c>
-      <c r="AV2" s="6">
-        <v>3.79</v>
-      </c>
-      <c r="AW2" s="6">
-        <v>3.4420000000000002</v>
-      </c>
-      <c r="AX2" s="6">
-        <v>3.5590000000000002</v>
-      </c>
-      <c r="AY2" s="6">
-        <v>3.375</v>
-      </c>
-      <c r="AZ2" s="6">
-        <v>3.206</v>
-      </c>
-      <c r="BA2" s="6">
-        <v>3.6859999999999999</v>
-      </c>
-      <c r="BB2" s="6">
-        <v>3.7509999999999999</v>
-      </c>
-      <c r="BC2" s="6">
-        <v>3.9470000000000001</v>
-      </c>
-      <c r="BD2" s="6">
-        <v>3.996</v>
-      </c>
-      <c r="BE2" s="6">
-        <v>4.4980000000000002</v>
-      </c>
-      <c r="BF2" s="6">
-        <v>4.4550000000000001</v>
-      </c>
-      <c r="BG2" s="6">
-        <v>3.9239999999999999</v>
-      </c>
-      <c r="BH2" s="6">
-        <v>3.8580000000000001</v>
-      </c>
-      <c r="BI2" s="6">
-        <v>3.48</v>
-      </c>
-      <c r="BJ2" s="6">
-        <v>3.5659999999999998</v>
-      </c>
-      <c r="BK2" s="6">
-        <v>3.39</v>
-      </c>
-      <c r="BL2" s="6">
-        <v>3.2869999999999999</v>
-      </c>
-      <c r="BM2" s="6">
-        <v>3.6440000000000001</v>
-      </c>
-      <c r="BN2" s="6">
-        <v>3.8940000000000001</v>
-      </c>
-      <c r="BO2" s="6">
-        <v>3.9860000000000002</v>
-      </c>
-      <c r="BP2" s="6">
-        <v>4.0449999999999999</v>
-      </c>
-      <c r="BQ2" s="6">
-        <v>4.4980000000000002</v>
-      </c>
-      <c r="BR2" s="6">
-        <v>4.4560000000000004</v>
-      </c>
-      <c r="BS2" s="6">
-        <v>3.9849999999999999</v>
-      </c>
-      <c r="BT2" s="6">
-        <v>3.9340000000000002</v>
-      </c>
-      <c r="BU2" s="6">
-        <v>3.62</v>
-      </c>
-      <c r="BV2" s="6">
-        <v>3.6909999999999998</v>
-      </c>
-      <c r="BW2" s="6">
-        <v>3.484</v>
-      </c>
-      <c r="BX2" s="6">
-        <v>3.3639999999999999</v>
-      </c>
-      <c r="BY2" s="6">
-        <v>3.8050000000000002</v>
-      </c>
-      <c r="BZ2" s="6">
-        <v>3.9740000000000002</v>
-      </c>
-      <c r="CA2" s="6">
-        <v>3.956</v>
-      </c>
-      <c r="CB2" s="6">
-        <v>4.0880000000000001</v>
-      </c>
-      <c r="CC2" s="6">
-        <v>4.5410000000000004</v>
-      </c>
-      <c r="CD2" s="6">
-        <v>4.5519999999999996</v>
-      </c>
-      <c r="CE2" s="6">
-        <v>4.0519999999999996</v>
-      </c>
-      <c r="CF2" s="6">
-        <v>4.0090000000000003</v>
-      </c>
-      <c r="CG2" s="6">
-        <v>3.7080000000000002</v>
-      </c>
-      <c r="CH2" s="6">
-        <v>3.6629999999999998</v>
-      </c>
-      <c r="CI2" s="6">
-        <v>3.5569999999999999</v>
-      </c>
-      <c r="CJ2" s="6">
-        <v>3.4289999999999998</v>
-      </c>
-      <c r="CK2" s="6">
-        <v>3.7320000000000002</v>
-      </c>
-      <c r="CL2" s="6">
-        <v>3.895</v>
-      </c>
-      <c r="CM2" s="6">
-        <v>3.9940000000000002</v>
-      </c>
-      <c r="CN2" s="6">
-        <v>3.9550000000000001</v>
-      </c>
-      <c r="CO2" s="6">
-        <v>4.4450000000000003</v>
-      </c>
-      <c r="CP2" s="6">
-        <v>4.4930000000000003</v>
-      </c>
-      <c r="CQ2" s="6">
-        <v>3.9380000000000002</v>
-      </c>
-      <c r="CR2" s="6">
-        <v>3.9329999999999998</v>
-      </c>
-      <c r="CS2" s="6">
-        <v>3.528</v>
-      </c>
-      <c r="CT2" s="6">
-        <v>3.6309999999999998</v>
-      </c>
-      <c r="CU2" s="6">
-        <v>3.3969999999999998</v>
-      </c>
-      <c r="CV2" s="6">
-        <v>3.3420000000000001</v>
-      </c>
-      <c r="CW2" s="6">
-        <v>3.7080000000000002</v>
-      </c>
-      <c r="CX2" s="6">
-        <v>3.96</v>
-      </c>
-      <c r="CY2" s="6">
-        <v>4.0540000000000003</v>
-      </c>
-      <c r="CZ2" s="6">
-        <v>4.0629999999999997</v>
-      </c>
-      <c r="DA2" s="6">
-        <v>4.5289999999999999</v>
-      </c>
-      <c r="DB2" s="6">
-        <v>4.5890000000000004</v>
-      </c>
-      <c r="DC2" s="6">
-        <v>4.0410000000000004</v>
-      </c>
-      <c r="DD2" s="6">
-        <v>4.0629999999999997</v>
-      </c>
-      <c r="DE2" s="6">
-        <v>3.625</v>
-      </c>
-      <c r="DF2" s="6">
-        <v>3.6259999999999999</v>
-      </c>
-      <c r="DG2" s="6">
-        <v>3.4319999999999999</v>
-      </c>
-      <c r="DH2" s="6">
-        <v>3.4049999999999998</v>
-      </c>
-      <c r="DI2" s="6">
-        <v>3.819</v>
-      </c>
-      <c r="DJ2" s="6">
-        <v>4.1369999999999996</v>
-      </c>
-      <c r="DK2" s="6">
-        <v>4.17</v>
-      </c>
-      <c r="DL2" s="6">
-        <v>4.194</v>
-      </c>
-      <c r="DM2" s="6">
-        <v>4.665</v>
-      </c>
-      <c r="DN2" s="6">
-        <v>4.6470000000000002</v>
-      </c>
-      <c r="DO2" s="6">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="DP2" s="6">
-        <v>4.0860000000000003</v>
-      </c>
-      <c r="DQ2" s="6">
-        <v>3.7250000000000001</v>
-      </c>
-      <c r="DR2" s="6">
-        <v>3.6379999999999999</v>
-      </c>
-      <c r="DS2" s="6">
-        <v>3.6589999999999998</v>
-      </c>
-      <c r="DT2" s="6">
-        <v>3.5230000000000001</v>
-      </c>
-      <c r="DU2" s="6">
-        <v>3.9460000000000002</v>
-      </c>
-      <c r="DV2" s="6">
-        <v>4.1669999999999998</v>
-      </c>
-      <c r="DW2" s="6">
-        <v>4.2050000000000001</v>
-      </c>
-      <c r="DX2" s="6">
-        <v>4.3109999999999999</v>
-      </c>
-      <c r="DY2" s="6">
-        <v>4.7050000000000001</v>
-      </c>
-      <c r="DZ2" s="6">
-        <v>4.6890000000000001</v>
-      </c>
-      <c r="EA2" s="6">
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="EB2" s="6">
-        <v>4.1890000000000001</v>
-      </c>
-      <c r="EC2" s="6">
-        <v>3.7749999999999999</v>
-      </c>
-      <c r="ED2" s="6">
-        <v>3.8769999999999998</v>
-      </c>
-      <c r="EE2" s="6">
-        <v>3.6909999999999998</v>
-      </c>
-      <c r="EF2" s="6">
-        <v>3.3860000000000001</v>
-      </c>
-      <c r="EG2" s="6">
-        <v>3.9430000000000001</v>
-      </c>
-      <c r="EH2" s="6">
-        <v>4.0259999999999998</v>
-      </c>
-      <c r="EI2" s="6">
-        <v>4.1680000000000001</v>
-      </c>
-      <c r="EJ2" s="6">
-        <v>4.2549999999999999</v>
-      </c>
-      <c r="EK2" s="6">
-        <v>4.681</v>
-      </c>
-      <c r="EL2" s="6">
-        <v>4.6769999999999996</v>
-      </c>
-      <c r="EM2" s="6">
-        <v>4.1959999999999997</v>
-      </c>
-      <c r="EN2" s="6">
-        <v>4.1289999999999996</v>
-      </c>
-      <c r="EO2" s="6">
-        <v>3.835</v>
-      </c>
-      <c r="EP2" s="6">
-        <v>3.7480000000000002</v>
-      </c>
-      <c r="EQ2" s="6">
-        <v>3.593</v>
-      </c>
-      <c r="ER2" s="6">
-        <v>3.4329999999999998</v>
-      </c>
-      <c r="ES2" s="6">
-        <v>3.9180000000000001</v>
-      </c>
-      <c r="ET2" s="6">
-        <v>4.04</v>
-      </c>
-      <c r="EU2" s="6">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="EV2" s="6">
-        <v>4.2629999999999999</v>
-      </c>
-      <c r="EW2" s="6">
-        <v>4.7389999999999999</v>
-      </c>
-      <c r="EX2" s="6">
-        <v>4.7539999999999996</v>
-      </c>
-      <c r="EY2" s="6">
-        <v>4.22</v>
-      </c>
-      <c r="EZ2" s="6">
-        <v>4.2510000000000003</v>
-      </c>
-      <c r="FA2" s="6">
-        <v>3.7930000000000001</v>
-      </c>
-      <c r="FB2" s="6">
-        <v>3.867</v>
-      </c>
-      <c r="FC2" s="6">
-        <v>3.6960000000000002</v>
-      </c>
-      <c r="FD2" s="6">
-        <v>3.4689999999999999</v>
-      </c>
-      <c r="FE2" s="6">
-        <v>3.9319999999999999</v>
-      </c>
-      <c r="FF2" s="6">
-        <v>4.0919999999999996</v>
-      </c>
-      <c r="FG2" s="6">
-        <v>4.1429999999999998</v>
-      </c>
-      <c r="FH2" s="6">
-        <v>4.3390000000000004</v>
-      </c>
-      <c r="FI2" s="6">
-        <v>4.665</v>
-      </c>
-      <c r="FJ2" s="6">
-        <v>4.7279999999999998</v>
-      </c>
-      <c r="FK2" s="6">
-        <v>4.202</v>
-      </c>
-      <c r="FL2" s="6">
-        <v>4.3</v>
-      </c>
-      <c r="FM2" s="6">
-        <v>3.7610000000000001</v>
-      </c>
-      <c r="FN2" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="FO2" s="6">
-        <v>3.6840000000000002</v>
-      </c>
-      <c r="FP2" s="6">
-        <v>3.5339999999999998</v>
-      </c>
-      <c r="FQ2" s="6">
-        <v>3.9449999999999998</v>
-      </c>
-      <c r="FR2" s="6">
-        <v>4.1859999999999999</v>
-      </c>
-      <c r="FS2" s="6">
-        <v>4.26</v>
-      </c>
-      <c r="FT2" s="6">
-        <v>4.3890000000000002</v>
-      </c>
-      <c r="FU2" s="6">
-        <v>4.7679999999999998</v>
-      </c>
-      <c r="FV2" s="6">
-        <v>4.7830000000000004</v>
-      </c>
-      <c r="FW2" s="6">
-        <v>4.2610000000000001</v>
-      </c>
-      <c r="FX2" s="6">
-        <v>4.3289999999999997</v>
-      </c>
-      <c r="FY2" s="6">
-        <v>3.7970000000000002</v>
-      </c>
-      <c r="FZ2" s="6">
-        <v>4.0330000000000004</v>
-      </c>
-      <c r="GA2" s="6">
-        <v>3.6579999999999999</v>
-      </c>
-      <c r="GB2" s="6">
-        <v>3.5419999999999998</v>
-      </c>
-      <c r="GC2" s="6">
-        <v>3.9670000000000001</v>
-      </c>
-      <c r="GD2" s="6">
-        <v>4.0880000000000001</v>
-      </c>
-      <c r="GE2" s="6">
-        <v>4.181</v>
-      </c>
-      <c r="GF2" s="6">
-        <v>4.3230000000000004</v>
-      </c>
-      <c r="GG2" s="6">
+      <c r="B285" s="3">
         <v>4.8230000000000004</v>
       </c>
-      <c r="GH2" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="GI2" s="6">
-        <v>4.2229999999999999</v>
-      </c>
-      <c r="GJ2" s="6">
-        <v>4.2640000000000002</v>
-      </c>
-      <c r="GK2" s="6">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="GL2" s="6">
-        <v>3.9929999999999999</v>
-      </c>
-      <c r="GM2" s="6">
-        <v>3.774</v>
-      </c>
-      <c r="GN2" s="6">
-        <v>3.73</v>
-      </c>
-      <c r="GO2" s="6">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="GP2" s="6">
-        <v>4.3159999999999998</v>
-      </c>
-      <c r="GQ2" s="6">
-        <v>4.391</v>
-      </c>
-      <c r="GR2" s="6">
-        <v>4.5410000000000004</v>
-      </c>
-      <c r="GS2" s="6">
-        <v>4.9080000000000004</v>
-      </c>
-      <c r="GT2" s="6">
-        <v>4.8360000000000003</v>
-      </c>
-      <c r="GU2" s="6">
-        <v>4.3479999999999999</v>
-      </c>
-      <c r="GV2" s="6">
-        <v>4.4249999999999998</v>
-      </c>
-      <c r="GW2" s="6">
-        <v>3.984</v>
-      </c>
-      <c r="GX2" s="6">
-        <v>4.0309999999999997</v>
-      </c>
-      <c r="GY2" s="6">
-        <v>3.8839999999999999</v>
-      </c>
-      <c r="GZ2" s="6">
-        <v>3.6259999999999999</v>
-      </c>
-      <c r="HA2" s="6">
-        <v>4.1159999999999997</v>
-      </c>
-      <c r="HB2" s="6">
-        <v>4.2270000000000003</v>
-      </c>
-      <c r="HC2" s="6">
-        <v>4.3760000000000003</v>
-      </c>
-      <c r="HD2" s="6">
-        <v>4.4550000000000001</v>
-      </c>
-      <c r="HE2" s="6">
-        <v>4.8070000000000004</v>
-      </c>
-      <c r="HF2" s="6">
-        <v>4.8019999999999996</v>
-      </c>
-      <c r="HG2" s="6">
-        <v>4.2839999999999998</v>
-      </c>
-      <c r="HH2" s="6">
-        <v>4.4089999999999998</v>
-      </c>
-      <c r="HI2" s="6">
-        <v>3.7869999999999999</v>
-      </c>
-      <c r="HJ2" s="6">
-        <v>3.8660000000000001</v>
-      </c>
-      <c r="HK2" s="6">
-        <v>3.8170000000000002</v>
-      </c>
-      <c r="HL2" s="6">
-        <v>3.714</v>
-      </c>
-      <c r="HM2" s="6">
-        <v>4.1130000000000004</v>
-      </c>
-      <c r="HN2" s="6">
-        <v>4.335</v>
-      </c>
-      <c r="HO2" s="6">
-        <v>4.2930000000000001</v>
-      </c>
-      <c r="HP2" s="6">
-        <v>4.5490000000000004</v>
-      </c>
-      <c r="HQ2" s="6">
-        <v>4.8760000000000003</v>
-      </c>
-      <c r="HR2" s="6">
-        <v>4.8780000000000001</v>
-      </c>
-      <c r="HS2" s="6">
-        <v>4.3390000000000004</v>
-      </c>
-      <c r="HT2" s="6">
-        <v>4.4180000000000001</v>
-      </c>
-      <c r="HU2" s="6">
-        <v>3.9670000000000001</v>
-      </c>
-      <c r="HV2" s="6">
-        <v>4.1020000000000003</v>
-      </c>
-      <c r="HW2" s="6">
-        <v>3.84</v>
-      </c>
-      <c r="HX2" s="6">
-        <v>3.6509999999999998</v>
-      </c>
-      <c r="HY2" s="6">
-        <v>2.4380000000000002</v>
-      </c>
-      <c r="HZ2" s="6">
-        <v>1.1240000000000001</v>
-      </c>
-      <c r="IA2" s="6">
-        <v>2.4729999999999999</v>
-      </c>
-      <c r="IB2" s="6">
-        <v>3.9940000000000002</v>
-      </c>
-      <c r="IC2" s="6">
-        <v>4.7229999999999999</v>
-      </c>
-      <c r="ID2" s="6">
-        <v>4.6859999999999999</v>
-      </c>
-      <c r="IE2" s="6">
-        <v>4.1020000000000003</v>
-      </c>
-      <c r="IF2" s="6">
-        <v>4.0720000000000001</v>
-      </c>
-      <c r="IG2" s="6">
-        <v>2.4969999999999999</v>
-      </c>
-      <c r="IH2" s="6">
-        <v>3.37</v>
-      </c>
-      <c r="II2" s="6">
-        <v>3.4049999999999998</v>
-      </c>
-      <c r="IJ2" s="6">
-        <v>3.3319999999999999</v>
-      </c>
-      <c r="IK2" s="6">
-        <v>3.6539999999999999</v>
-      </c>
-      <c r="IL2" s="6">
-        <v>3.044</v>
-      </c>
-      <c r="IM2" s="6">
-        <v>3.8820000000000001</v>
-      </c>
-      <c r="IN2" s="6">
-        <v>4.3550000000000004</v>
-      </c>
-      <c r="IO2" s="6">
-        <v>4.931</v>
-      </c>
-      <c r="IP2" s="6">
-        <v>4.8490000000000002</v>
-      </c>
-      <c r="IQ2" s="6">
-        <v>4.3849999999999998</v>
-      </c>
-      <c r="IR2" s="6">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="IS2" s="6">
-        <v>3.927</v>
-      </c>
-      <c r="IT2" s="6">
-        <v>3.9710000000000001</v>
-      </c>
-      <c r="IU2" s="6">
-        <v>3.6989999999999998</v>
-      </c>
-      <c r="IV2" s="6">
-        <v>3.74</v>
-      </c>
-      <c r="IW2" s="6">
-        <v>3.9430000000000001</v>
-      </c>
-      <c r="IX2" s="6">
-        <v>3.98</v>
-      </c>
-      <c r="IY2" s="6">
-        <v>4.375</v>
-      </c>
-      <c r="IZ2" s="6">
-        <v>4.5110000000000001</v>
-      </c>
-      <c r="JA2" s="6">
-        <v>4.8360000000000003</v>
-      </c>
-      <c r="JB2" s="6">
-        <v>4.7949999999999999</v>
-      </c>
-      <c r="JC2" s="6">
-        <v>4.2990000000000004</v>
-      </c>
-      <c r="JD2" s="6">
-        <v>4.2130000000000001</v>
-      </c>
-      <c r="JE2" s="6">
-        <v>3.923</v>
-      </c>
-      <c r="JF2" s="6">
-        <v>3.8719999999999999</v>
-      </c>
-      <c r="JG2" s="6">
-        <v>3.7879999999999998</v>
-      </c>
-      <c r="JH2" s="6">
-        <v>3.758</v>
-      </c>
-      <c r="JI2" s="6">
-        <v>3.9079999999999999</v>
-      </c>
-      <c r="JJ2" s="6">
-        <v>4.0259999999999998</v>
-      </c>
-      <c r="JK2" s="6">
-        <v>4.3579999999999997</v>
-      </c>
-      <c r="JL2" s="6">
-        <v>4.5759999999999996</v>
-      </c>
-      <c r="JM2" s="6">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="JN2" s="6">
-        <v>4.7880000000000003</v>
-      </c>
-      <c r="JO2" s="6">
-        <v>4.3220000000000001</v>
-      </c>
-      <c r="JP2" s="6">
-        <v>4.3410000000000002</v>
-      </c>
-      <c r="JQ2" s="6">
-        <v>3.8740000000000001</v>
-      </c>
-      <c r="JR2" s="6">
-        <v>3.9220000000000002</v>
-      </c>
-      <c r="JS2" s="6">
-        <v>3.7770000000000001</v>
-      </c>
-      <c r="JT2" s="6">
-        <v>3.7080000000000002</v>
-      </c>
-      <c r="JU2" s="6">
-        <v>4.0119999999999996</v>
-      </c>
-      <c r="JV2" s="6">
-        <v>3.97</v>
-      </c>
-      <c r="JW2" s="6">
-        <v>4.3479999999999999</v>
-      </c>
-      <c r="JX2" s="6">
-        <v>4.4450000000000003</v>
-      </c>
-      <c r="JY2" s="6">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="JZ2" s="6">
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286" s="3">
+        <v>4.2649999999999997</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B287" s="3">
         <v>4.8230000000000004</v>
       </c>
-      <c r="KA2" s="6">
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B288" s="3">
         <v>4.2649999999999997</v>
       </c>
-      <c r="KB2" s="6">
-        <v>4.8230000000000004</v>
-      </c>
-      <c r="KC2" s="6">
-        <v>4.2649999999999997</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/raw/Excel - trafic routier.xlsx
+++ b/data/raw/Excel - trafic routier.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\serietemporelle\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6626B3-B3B7-4FEC-84F6-C3B70E5641D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F0F643-17C9-4706-9E66-59DD62CE6C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
   <si>
     <t>Période</t>
   </si>
@@ -1290,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B288"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H282" sqref="H282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3589,22 +3589,6 @@
         <v>4.2649999999999997</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A287" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B287" s="3">
-        <v>4.8230000000000004</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A288" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B288" s="3">
-        <v>4.2649999999999997</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
